--- a/Base calificaciones/calificaciones_db.xlsx
+++ b/Base calificaciones/calificaciones_db.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oficina\Documents\GitHub\tiresias\minos\Base calificaciones\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3691CF7B-05C0-4490-AB48-530368C051D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="589">
   <si>
     <t>AbandonodepersonaArt106párr1ro</t>
   </si>
@@ -910,12 +916,6 @@
     <t>ViolacióndesellosydocumentosArt254</t>
   </si>
   <si>
-    <t>AenazasArt149bis</t>
-  </si>
-  <si>
-    <t>LesioneslevArt89</t>
-  </si>
-  <si>
     <t>Abandono de persona - Art.106 párr. 1ro</t>
   </si>
   <si>
@@ -1018,7 +1018,7 @@
     <t>Amenazas agravadas - Art.149 bis párr. 2do</t>
   </si>
   <si>
-    <t>Apropiación de cosa ajena habida por error o caso fortuito - Art.175 Inc.2º</t>
+    <t>hola</t>
   </si>
   <si>
     <t>Apropiación de cosa perdida o tesoro - Art.175 Inc.1º</t>
@@ -1787,28 +1787,14 @@
   </si>
   <si>
     <t>Violación de sellos y documentos - Art.254</t>
-  </si>
-  <si>
-    <t>Aenazas - Art.149 bis</t>
-  </si>
-  <si>
-    <t>Lesiones lev - Art.89</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1824,7 +1810,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1832,43 +1818,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1906,7 +1882,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1940,6 +1916,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1974,9 +1951,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2149,2427 +2127,2397 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>86</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>87</v>
-      </c>
-      <c r="B90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>147</v>
-      </c>
-      <c r="B150" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>148</v>
-      </c>
-      <c r="B151" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
-        <v>237</v>
-      </c>
-      <c r="B240" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B252" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B253" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B254" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B255" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B257" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B258" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B259" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B260" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B262" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B263" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B264" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B265" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B266" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
-        <v>265</v>
-      </c>
-      <c r="B268" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
-        <v>266</v>
-      </c>
-      <c r="B269" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B270" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B271" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B272" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B273" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B274" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B275" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B276" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B277" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B278" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B279" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B280" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B281" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B282" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B283" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B284" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B285" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B286" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B287" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B288" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B289" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B290" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B291" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B292" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B293" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B294" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B295" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B296" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B297" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B298" t="s">
         <v>588</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" t="s">
-        <v>296</v>
-      </c>
-      <c r="B299" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" t="s">
-        <v>297</v>
-      </c>
-      <c r="B300" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" t="s">
-        <v>298</v>
-      </c>
-      <c r="B301" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" t="s">
-        <v>299</v>
-      </c>
-      <c r="B302" t="s">
-        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/Base calificaciones/calificaciones_db.xlsx
+++ b/Base calificaciones/calificaciones_db.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oficina\Documents\GitHub\tiresias\minos\Base calificaciones\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3691CF7B-05C0-4490-AB48-530368C051D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="591">
   <si>
     <t>AbandonodepersonaArt106párr1ro</t>
   </si>
@@ -916,6 +910,9 @@
     <t>ViolacióndesellosydocumentosArt254</t>
   </si>
   <si>
+    <t>DesnaturalizacióndechequeArt175Inc4º</t>
+  </si>
+  <si>
     <t>Abandono de persona - Art.106 párr. 1ro</t>
   </si>
   <si>
@@ -1787,13 +1784,16 @@
   </si>
   <si>
     <t>Violación de sellos y documentos - Art.254</t>
+  </si>
+  <si>
+    <t>Desnaturalización de cheque - Art.175 Inc.4º</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1830,21 +1830,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1882,7 +1874,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1916,7 +1908,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1951,10 +1942,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2127,376 +2117,374 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B298"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2504,335 +2492,335 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2840,487 +2828,487 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3328,943 +3316,943 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -4272,252 +4260,260 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>588</v>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/Base calificaciones/calificaciones_db.xlsx
+++ b/Base calificaciones/calificaciones_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="593">
   <si>
     <t>AbandonodepersonaArt106párr1ro</t>
   </si>
@@ -913,6 +913,9 @@
     <t>DesnaturalizacióndechequeArt175Inc4º</t>
   </si>
   <si>
+    <t>FrustraciónmaliciosadepagodechequeArt302Inc3º</t>
+  </si>
+  <si>
     <t>Abandono de persona - Art.106 párr. 1ro</t>
   </si>
   <si>
@@ -1787,6 +1790,9 @@
   </si>
   <si>
     <t>Desnaturalización de cheque - Art.175 Inc.4º</t>
+  </si>
+  <si>
+    <t>Frustración maliciosa de pago de cheque - Art.302 Inc.3º</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B299"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2129,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2137,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2145,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2153,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2161,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2169,7 +2175,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2177,7 +2183,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2185,7 +2191,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2193,7 +2199,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2201,7 +2207,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2209,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2217,7 +2223,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2225,7 +2231,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2233,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2241,7 +2247,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2249,7 +2255,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2257,7 +2263,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2265,7 +2271,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2273,7 +2279,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2281,7 +2287,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2289,7 +2295,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2297,7 +2303,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2305,7 +2311,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2313,7 +2319,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2321,7 +2327,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2329,7 +2335,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2337,7 +2343,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2345,7 +2351,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2353,7 +2359,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2361,7 +2367,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2369,7 +2375,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2377,7 +2383,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2385,7 +2391,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2393,7 +2399,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2401,7 +2407,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2409,7 +2415,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2417,7 +2423,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2425,7 +2431,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2433,7 +2439,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2441,7 +2447,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2449,7 +2455,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2457,7 +2463,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2465,7 +2471,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2473,7 +2479,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2481,7 +2487,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2497,7 +2503,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2505,7 +2511,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2513,7 +2519,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2521,7 +2527,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2529,7 +2535,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2537,7 +2543,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2545,7 +2551,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2553,7 +2559,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2561,7 +2567,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2569,7 +2575,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2577,7 +2583,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2585,7 +2591,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2593,7 +2599,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2601,7 +2607,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2609,7 +2615,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2617,7 +2623,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2625,7 +2631,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2633,7 +2639,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2641,7 +2647,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2649,7 +2655,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2657,7 +2663,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2665,7 +2671,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2673,7 +2679,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2681,7 +2687,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2689,7 +2695,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2697,7 +2703,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2705,7 +2711,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2713,7 +2719,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2721,7 +2727,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2729,7 +2735,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2737,7 +2743,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2745,7 +2751,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2753,7 +2759,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2761,7 +2767,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2769,7 +2775,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2777,7 +2783,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2785,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2793,7 +2799,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2801,7 +2807,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2809,7 +2815,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2817,7 +2823,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2833,7 +2839,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2841,7 +2847,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2849,7 +2855,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2857,7 +2863,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2865,7 +2871,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2873,7 +2879,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2881,7 +2887,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2889,7 +2895,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2897,7 +2903,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2905,7 +2911,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2913,7 +2919,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2921,7 +2927,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2929,7 +2935,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2937,7 +2943,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2945,7 +2951,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2953,7 +2959,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2961,7 +2967,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2969,7 +2975,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2977,7 +2983,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2985,7 +2991,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2993,7 +2999,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3001,7 +3007,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3009,7 +3015,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3017,7 +3023,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3025,7 +3031,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3033,7 +3039,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3041,7 +3047,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3049,7 +3055,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3057,7 +3063,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3065,7 +3071,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3073,7 +3079,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3081,7 +3087,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3089,7 +3095,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3097,7 +3103,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3105,7 +3111,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3113,7 +3119,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3121,7 +3127,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3129,7 +3135,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3137,7 +3143,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3145,7 +3151,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3153,7 +3159,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3161,7 +3167,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3169,7 +3175,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3177,7 +3183,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3185,7 +3191,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3193,7 +3199,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3201,7 +3207,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3209,7 +3215,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3217,7 +3223,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3225,7 +3231,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3233,7 +3239,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3241,7 +3247,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3249,7 +3255,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3257,7 +3263,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3265,7 +3271,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3273,7 +3279,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3281,7 +3287,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3289,7 +3295,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3297,7 +3303,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3305,7 +3311,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3321,7 +3327,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3329,7 +3335,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3337,7 +3343,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3345,7 +3351,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3353,7 +3359,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3361,7 +3367,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3369,7 +3375,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3377,7 +3383,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3385,7 +3391,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3393,7 +3399,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3401,7 +3407,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3409,7 +3415,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3417,7 +3423,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3425,7 +3431,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3433,7 +3439,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3441,7 +3447,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3449,7 +3455,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3457,7 +3463,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3465,7 +3471,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3473,7 +3479,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3481,7 +3487,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3489,7 +3495,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3497,7 +3503,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3505,7 +3511,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3513,7 +3519,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3521,7 +3527,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3529,7 +3535,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3537,7 +3543,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3545,7 +3551,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3553,7 +3559,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3561,7 +3567,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3569,7 +3575,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3577,7 +3583,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3585,7 +3591,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3593,7 +3599,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3601,7 +3607,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3609,7 +3615,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3617,7 +3623,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3625,7 +3631,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3633,7 +3639,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3641,7 +3647,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3649,7 +3655,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3657,7 +3663,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3665,7 +3671,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3673,7 +3679,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3681,7 +3687,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3689,7 +3695,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3697,7 +3703,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3705,7 +3711,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3713,7 +3719,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3721,7 +3727,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3729,7 +3735,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3737,7 +3743,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3745,7 +3751,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3753,7 +3759,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3761,7 +3767,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3769,7 +3775,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3777,7 +3783,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3785,7 +3791,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3793,7 +3799,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3801,7 +3807,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3809,7 +3815,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3817,7 +3823,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3825,7 +3831,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3833,7 +3839,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3841,7 +3847,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3849,7 +3855,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3857,7 +3863,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3865,7 +3871,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3873,7 +3879,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3881,7 +3887,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3889,7 +3895,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3897,7 +3903,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3905,7 +3911,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3913,7 +3919,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3921,7 +3927,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3929,7 +3935,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3937,7 +3943,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3945,7 +3951,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3953,7 +3959,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3961,7 +3967,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3969,7 +3975,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3977,7 +3983,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3985,7 +3991,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3993,7 +3999,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4001,7 +4007,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4009,7 +4015,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4017,7 +4023,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4025,7 +4031,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4033,7 +4039,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4041,7 +4047,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4049,7 +4055,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4057,7 +4063,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4065,7 +4071,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4073,7 +4079,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4081,7 +4087,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4089,7 +4095,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4097,7 +4103,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4105,7 +4111,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4113,7 +4119,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4121,7 +4127,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4129,7 +4135,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4137,7 +4143,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4145,7 +4151,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4153,7 +4159,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4161,7 +4167,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4169,7 +4175,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4177,7 +4183,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4185,7 +4191,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4193,7 +4199,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4201,7 +4207,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4209,7 +4215,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4217,7 +4223,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4225,7 +4231,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4233,7 +4239,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4241,7 +4247,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4249,7 +4255,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4265,7 +4271,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4273,7 +4279,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4281,7 +4287,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4289,7 +4295,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4297,7 +4303,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4305,7 +4311,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4313,7 +4319,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4321,7 +4327,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4329,7 +4335,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4337,7 +4343,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4345,7 +4351,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4353,7 +4359,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4361,7 +4367,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4369,7 +4375,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4377,7 +4383,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4385,7 +4391,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4393,7 +4399,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4401,7 +4407,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4409,7 +4415,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4417,7 +4423,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4425,7 +4431,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4433,7 +4439,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4441,7 +4447,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4449,7 +4455,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4457,7 +4463,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4465,7 +4471,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4473,7 +4479,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4481,7 +4487,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4489,7 +4495,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4497,7 +4503,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4505,7 +4511,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4513,7 +4519,15 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>590</v>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/Base calificaciones/calificaciones_db.xlsx
+++ b/Base calificaciones/calificaciones_db.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oficina\Documents\GitHub\tiresias\minos\Base calificaciones\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A243DC-58CD-4323-91BD-1869801851D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1798,8 +1804,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1836,13 +1842,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1880,7 +1894,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1914,6 +1928,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1948,9 +1963,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2123,14 +2139,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301:XFD301"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2138,7 +2156,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2146,7 +2164,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2154,7 +2172,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2162,7 +2180,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2170,7 +2188,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2178,7 +2196,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2186,7 +2204,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2194,7 +2212,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2202,7 +2220,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2210,7 +2228,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2218,7 +2236,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2226,7 +2244,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2234,7 +2252,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2242,7 +2260,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2250,7 +2268,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2258,7 +2276,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2266,7 +2284,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2274,7 +2292,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2290,7 +2308,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2298,7 +2316,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2306,7 +2324,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2314,7 +2332,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2322,7 +2340,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2330,7 +2348,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2338,7 +2356,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2346,7 +2364,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2354,7 +2372,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2362,7 +2380,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2370,7 +2388,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2378,7 +2396,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2386,7 +2404,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2394,7 +2412,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2402,7 +2420,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2410,7 +2428,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2418,7 +2436,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2426,7 +2444,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2434,7 +2452,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2442,7 +2460,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2450,7 +2468,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2458,7 +2476,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2466,7 +2484,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2474,7 +2492,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2482,7 +2500,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2490,7 +2508,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2498,7 +2516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2506,7 +2524,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2514,7 +2532,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2522,7 +2540,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2530,7 +2548,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2538,7 +2556,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2546,7 +2564,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2554,7 +2572,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2562,7 +2580,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2570,7 +2588,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2578,7 +2596,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2586,7 +2604,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2594,7 +2612,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2602,7 +2620,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2610,7 +2628,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2618,7 +2636,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2626,7 +2644,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2634,7 +2652,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2642,7 +2660,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2650,7 +2668,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2658,7 +2676,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2666,7 +2684,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2674,7 +2692,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2682,7 +2700,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2690,7 +2708,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2698,7 +2716,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2706,7 +2724,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2714,7 +2732,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2722,7 +2740,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2730,7 +2748,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2738,7 +2756,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2746,7 +2764,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2754,7 +2772,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2762,7 +2780,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2770,7 +2788,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2778,7 +2796,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2786,7 +2804,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2794,7 +2812,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2802,7 +2820,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2810,7 +2828,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2818,7 +2836,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2826,7 +2844,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2834,7 +2852,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2842,7 +2860,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2850,7 +2868,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2858,7 +2876,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2866,7 +2884,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2874,7 +2892,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2882,7 +2900,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2890,7 +2908,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2898,7 +2916,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2906,7 +2924,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2914,7 +2932,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2922,7 +2940,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2930,7 +2948,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2938,7 +2956,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2946,7 +2964,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2954,7 +2972,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2962,7 +2980,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2970,7 +2988,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2978,7 +2996,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2986,7 +3004,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2994,7 +3012,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3002,7 +3020,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3010,7 +3028,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3018,7 +3036,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -3026,7 +3044,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3034,7 +3052,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3042,7 +3060,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3050,7 +3068,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3058,7 +3076,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3066,7 +3084,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3074,7 +3092,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -3082,7 +3100,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3090,7 +3108,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3098,7 +3116,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -3106,7 +3124,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3114,7 +3132,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -3122,7 +3140,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -3130,7 +3148,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3138,7 +3156,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3146,7 +3164,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3154,7 +3172,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3162,7 +3180,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3170,7 +3188,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3178,7 +3196,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3186,7 +3204,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -3194,7 +3212,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -3210,7 +3228,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -3218,7 +3236,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -3226,7 +3244,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -3234,7 +3252,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3242,7 +3260,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3250,7 +3268,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3258,7 +3276,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3266,7 +3284,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3274,7 +3292,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3282,7 +3300,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3290,7 +3308,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3298,7 +3316,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3306,7 +3324,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3314,7 +3332,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3322,7 +3340,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3330,7 +3348,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3338,7 +3356,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3346,7 +3364,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3354,7 +3372,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3362,7 +3380,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -3370,7 +3388,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -3378,7 +3396,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -3386,7 +3404,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -3394,7 +3412,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -3402,7 +3420,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -3410,7 +3428,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3418,7 +3436,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -3426,7 +3444,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -3434,7 +3452,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -3442,7 +3460,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -3450,7 +3468,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -3458,7 +3476,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -3466,7 +3484,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -3474,7 +3492,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -3482,7 +3500,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -3490,7 +3508,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -3498,7 +3516,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -3506,7 +3524,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -3514,7 +3532,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -3522,7 +3540,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -3530,7 +3548,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -3538,7 +3556,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -3546,7 +3564,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -3554,7 +3572,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -3562,7 +3580,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -3570,7 +3588,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -3578,7 +3596,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -3586,7 +3604,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -3594,7 +3612,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -3602,7 +3620,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -3610,7 +3628,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -3618,7 +3636,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -3626,7 +3644,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -3634,7 +3652,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -3642,7 +3660,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -3650,7 +3668,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -3658,7 +3676,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -3666,7 +3684,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -3674,7 +3692,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -3682,7 +3700,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -3690,7 +3708,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -3698,7 +3716,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -3706,7 +3724,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -3714,7 +3732,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -3722,7 +3740,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -3730,7 +3748,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -3738,7 +3756,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -3746,7 +3764,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -3754,7 +3772,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -3762,7 +3780,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -3770,7 +3788,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -3778,7 +3796,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -3786,7 +3804,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -3794,7 +3812,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -3802,7 +3820,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -3810,7 +3828,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -3818,7 +3836,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -3826,7 +3844,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -3834,7 +3852,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -3842,7 +3860,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -3850,7 +3868,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -3858,7 +3876,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -3866,7 +3884,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -3874,7 +3892,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -3882,7 +3900,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -3890,7 +3908,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -3898,7 +3916,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -3906,7 +3924,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -3914,7 +3932,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -3922,7 +3940,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -3930,7 +3948,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -3938,7 +3956,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -3946,7 +3964,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -3954,7 +3972,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -3962,7 +3980,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -3970,7 +3988,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -3978,7 +3996,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -3986,7 +4004,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -3994,7 +4012,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -4002,7 +4020,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -4010,7 +4028,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -4018,7 +4036,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -4026,7 +4044,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -4034,7 +4052,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -4042,7 +4060,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -4050,7 +4068,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -4058,7 +4076,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -4066,7 +4084,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -4074,7 +4092,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -4082,7 +4100,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -4090,7 +4108,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -4098,7 +4116,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -4106,7 +4124,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -4114,7 +4132,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -4122,7 +4140,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -4130,7 +4148,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -4138,7 +4156,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -4146,7 +4164,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -4154,7 +4172,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -4162,7 +4180,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -4170,7 +4188,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -4178,7 +4196,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -4186,7 +4204,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -4194,7 +4212,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -4202,7 +4220,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -4210,7 +4228,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -4218,7 +4236,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -4226,7 +4244,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -4234,7 +4252,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -4242,7 +4260,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -4250,7 +4268,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -4258,7 +4276,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -4266,7 +4284,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -4274,7 +4292,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -4282,7 +4300,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -4290,7 +4308,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -4298,7 +4316,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -4306,7 +4324,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -4314,7 +4332,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -4322,7 +4340,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -4330,7 +4348,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -4338,7 +4356,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -4346,7 +4364,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -4354,7 +4372,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -4362,7 +4380,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -4370,7 +4388,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -4378,7 +4396,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -4386,7 +4404,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -4394,7 +4412,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -4402,7 +4420,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -4410,7 +4428,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -4418,7 +4436,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -4426,7 +4444,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -4434,7 +4452,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -4442,7 +4460,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -4450,7 +4468,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -4458,7 +4476,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -4466,7 +4484,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -4474,7 +4492,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -4482,7 +4500,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -4490,7 +4508,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -4498,7 +4516,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -4506,7 +4524,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -4514,7 +4532,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -4522,7 +4540,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>

--- a/Base calificaciones/calificaciones_db.xlsx
+++ b/Base calificaciones/calificaciones_db.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oficina\Documents\GitHub\tiresias\minos\Base calificaciones\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3691CF7B-05C0-4490-AB48-530368C051D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="593">
   <si>
     <t>AbandonodepersonaArt106párr1ro</t>
   </si>
@@ -916,6 +910,12 @@
     <t>ViolacióndesellosydocumentosArt254</t>
   </si>
   <si>
+    <t>FrustraciónmaliciosadepagodechequeArt302Inc3º</t>
+  </si>
+  <si>
+    <t>DesnaturalizacióndechequeArt175Inc4º</t>
+  </si>
+  <si>
     <t>Abandono de persona - Art.106 párr. 1ro</t>
   </si>
   <si>
@@ -1787,13 +1787,19 @@
   </si>
   <si>
     <t>Violación de sellos y documentos - Art.254</t>
+  </si>
+  <si>
+    <t>Frustración maliciosa de pago de cheque - Art.302 Inc.3º</t>
+  </si>
+  <si>
+    <t>Desnaturalización de cheque - Art.175 Inc.4º</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1830,21 +1836,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1882,7 +1880,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1916,7 +1914,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1951,10 +1948,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2127,376 +2123,374 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B298"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2504,335 +2498,335 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2840,487 +2834,487 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3328,943 +3322,943 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -4272,252 +4266,268 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>588</v>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/Base calificaciones/calificaciones_db.xlsx
+++ b/Base calificaciones/calificaciones_db.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oficina\Documents\GitHub\ariadna\Base calificaciones\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64AA51C-52F2-450F-8122-4A61955947F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="595">
   <si>
     <t>AbandonodepersonaArt106párr1ro</t>
   </si>
@@ -916,6 +922,9 @@
     <t>DesnaturalizacióndechequeArt175Inc4º</t>
   </si>
   <si>
+    <t>AbandonodepersonaagravadoArt106párr2do</t>
+  </si>
+  <si>
     <t>Abandono de persona - Art.106 párr. 1ro</t>
   </si>
   <si>
@@ -1793,13 +1802,16 @@
   </si>
   <si>
     <t>Desnaturalización de cheque - Art.175 Inc.4º</t>
+  </si>
+  <si>
+    <t>Abandono de persona agravado - Art.106 párr. 2do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1836,13 +1848,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1880,7 +1900,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1914,6 +1934,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1948,9 +1969,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2123,374 +2145,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2498,335 +2525,335 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2834,487 +2861,487 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3322,943 +3349,943 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -4266,268 +4293,276 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>592</v>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/Base calificaciones/calificaciones_db.xlsx
+++ b/Base calificaciones/calificaciones_db.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oficina\Documents\GitHub\ariadna\Base calificaciones\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64AA51C-52F2-450F-8122-4A61955947F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="599">
   <si>
     <t>AbandonodepersonaArt106párr1ro</t>
   </si>
@@ -925,6 +919,12 @@
     <t>AbandonodepersonaagravadoArt106párr2do</t>
   </si>
   <si>
+    <t>Abigeatoagravado(supresiónoalteracióndemarcasyseñales)Art167quaterInc2º</t>
+  </si>
+  <si>
+    <t>OmisióndelosdeberesdefuncionariodeestablecimientoArt204quater</t>
+  </si>
+  <si>
     <t>Abandono de persona - Art.106 párr. 1ro</t>
   </si>
   <si>
@@ -1805,13 +1805,19 @@
   </si>
   <si>
     <t>Abandono de persona agravado - Art.106 párr. 2do</t>
+  </si>
+  <si>
+    <t>Abigeato agravado (supresión o alteración de marcas y señales) - Art.167 quater Inc.2º</t>
+  </si>
+  <si>
+    <t>Omisión de los deberes de funcionario de establecimiento - Art.204 quater</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1848,21 +1854,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1900,7 +1898,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1934,7 +1932,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1969,10 +1966,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2145,379 +2141,374 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2525,335 +2516,335 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2861,487 +2852,487 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3349,943 +3340,943 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -4293,276 +4284,292 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>594</v>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/Base calificaciones/calificaciones_db.xlsx
+++ b/Base calificaciones/calificaciones_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="603">
   <si>
     <t>AbandonodepersonaArt106párr1ro</t>
   </si>
@@ -925,6 +925,12 @@
     <t>OmisióndelosdeberesdefuncionariodeestablecimientoArt204quater</t>
   </si>
   <si>
+    <t>InfracciónLeynº22362(LeydeMarcas)</t>
+  </si>
+  <si>
+    <t>Lesionesgravísimasenestadodeemociónviolentaartículo91Art93</t>
+  </si>
+  <si>
     <t>Abandono de persona - Art.106 párr. 1ro</t>
   </si>
   <si>
@@ -1811,6 +1817,12 @@
   </si>
   <si>
     <t>Omisión de los deberes de funcionario de establecimiento - Art.204 quater</t>
+  </si>
+  <si>
+    <t>Infracción Ley nº 22.362 (Ley de Marcas)</t>
+  </si>
+  <si>
+    <t>Lesiones gravísimas en estado de emoción violenta artículo 91 - Art.93</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2154,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2153,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2161,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2169,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2177,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2185,7 +2197,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2193,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2201,7 +2213,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2209,7 +2221,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2217,7 +2229,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2225,7 +2237,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2233,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2241,7 +2253,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2249,7 +2261,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2257,7 +2269,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2265,7 +2277,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2273,7 +2285,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2281,7 +2293,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2289,7 +2301,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2297,7 +2309,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2305,7 +2317,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2313,7 +2325,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2321,7 +2333,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2329,7 +2341,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2337,7 +2349,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2345,7 +2357,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2353,7 +2365,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2361,7 +2373,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2369,7 +2381,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2377,7 +2389,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2385,7 +2397,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2393,7 +2405,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2401,7 +2413,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2409,7 +2421,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2417,7 +2429,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2425,7 +2437,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2433,7 +2445,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2441,7 +2453,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2449,7 +2461,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2457,7 +2469,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2465,7 +2477,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2473,7 +2485,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2481,7 +2493,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2489,7 +2501,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2497,7 +2509,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2505,7 +2517,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2521,7 +2533,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2529,7 +2541,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2537,7 +2549,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2545,7 +2557,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2553,7 +2565,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2561,7 +2573,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2569,7 +2581,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2577,7 +2589,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2585,7 +2597,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2593,7 +2605,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2601,7 +2613,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2609,7 +2621,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2617,7 +2629,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2625,7 +2637,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2633,7 +2645,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2641,7 +2653,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2649,7 +2661,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2657,7 +2669,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2665,7 +2677,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2673,7 +2685,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2681,7 +2693,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2689,7 +2701,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2697,7 +2709,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2705,7 +2717,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2713,7 +2725,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2721,7 +2733,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2729,7 +2741,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2737,7 +2749,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2745,7 +2757,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2753,7 +2765,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2761,7 +2773,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2769,7 +2781,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2777,7 +2789,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2785,7 +2797,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2793,7 +2805,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2801,7 +2813,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2809,7 +2821,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2817,7 +2829,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2825,7 +2837,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2833,7 +2845,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2841,7 +2853,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2857,7 +2869,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2865,7 +2877,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2873,7 +2885,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2881,7 +2893,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2889,7 +2901,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2897,7 +2909,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2905,7 +2917,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2913,7 +2925,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2921,7 +2933,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2929,7 +2941,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2937,7 +2949,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2945,7 +2957,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2953,7 +2965,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2961,7 +2973,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2969,7 +2981,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2977,7 +2989,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2985,7 +2997,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2993,7 +3005,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3001,7 +3013,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3009,7 +3021,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3017,7 +3029,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3025,7 +3037,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3033,7 +3045,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3041,7 +3053,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3049,7 +3061,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3057,7 +3069,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3065,7 +3077,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3073,7 +3085,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3081,7 +3093,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3089,7 +3101,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3097,7 +3109,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3105,7 +3117,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3113,7 +3125,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3121,7 +3133,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3129,7 +3141,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3137,7 +3149,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3145,7 +3157,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3153,7 +3165,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3161,7 +3173,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3169,7 +3181,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3177,7 +3189,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3185,7 +3197,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3193,7 +3205,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3201,7 +3213,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3209,7 +3221,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3217,7 +3229,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3225,7 +3237,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3233,7 +3245,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3241,7 +3253,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3249,7 +3261,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3257,7 +3269,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3265,7 +3277,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3273,7 +3285,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3281,7 +3293,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3289,7 +3301,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3297,7 +3309,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3305,7 +3317,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3313,7 +3325,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3321,7 +3333,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3329,7 +3341,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3345,7 +3357,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3353,7 +3365,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3361,7 +3373,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3369,7 +3381,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3377,7 +3389,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3385,7 +3397,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3393,7 +3405,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3401,7 +3413,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3409,7 +3421,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3417,7 +3429,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3425,7 +3437,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3433,7 +3445,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3441,7 +3453,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3449,7 +3461,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3457,7 +3469,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3465,7 +3477,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3473,7 +3485,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3481,7 +3493,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3489,7 +3501,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3497,7 +3509,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3505,7 +3517,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3513,7 +3525,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3521,7 +3533,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3529,7 +3541,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3537,7 +3549,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3545,7 +3557,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3553,7 +3565,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3561,7 +3573,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3569,7 +3581,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3577,7 +3589,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3585,7 +3597,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3593,7 +3605,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3601,7 +3613,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3609,7 +3621,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3617,7 +3629,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3625,7 +3637,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3633,7 +3645,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3641,7 +3653,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3649,7 +3661,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3657,7 +3669,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3665,7 +3677,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3673,7 +3685,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3681,7 +3693,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3689,7 +3701,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3697,7 +3709,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3705,7 +3717,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3713,7 +3725,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3721,7 +3733,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3729,7 +3741,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3737,7 +3749,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3745,7 +3757,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3753,7 +3765,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3761,7 +3773,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3769,7 +3781,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3777,7 +3789,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3785,7 +3797,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3793,7 +3805,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3801,7 +3813,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3809,7 +3821,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3817,7 +3829,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3825,7 +3837,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3833,7 +3845,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3841,7 +3853,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3849,7 +3861,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3857,7 +3869,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3865,7 +3877,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3873,7 +3885,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3881,7 +3893,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3889,7 +3901,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3897,7 +3909,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3905,7 +3917,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3913,7 +3925,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3921,7 +3933,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3929,7 +3941,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3937,7 +3949,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3945,7 +3957,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3953,7 +3965,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3961,7 +3973,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3969,7 +3981,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3977,7 +3989,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3985,7 +3997,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3993,7 +4005,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4001,7 +4013,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4009,7 +4021,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4017,7 +4029,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4025,7 +4037,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4033,7 +4045,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4041,7 +4053,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4049,7 +4061,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4057,7 +4069,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4065,7 +4077,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4073,7 +4085,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4081,7 +4093,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4089,7 +4101,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4097,7 +4109,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4105,7 +4117,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4113,7 +4125,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4121,7 +4133,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4129,7 +4141,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4137,7 +4149,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4145,7 +4157,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4153,7 +4165,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4161,7 +4173,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4169,7 +4181,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4177,7 +4189,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4185,7 +4197,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4193,7 +4205,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4201,7 +4213,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4209,7 +4221,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4217,7 +4229,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4225,7 +4237,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4233,7 +4245,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4241,7 +4253,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4249,7 +4261,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4257,7 +4269,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4265,7 +4277,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4273,7 +4285,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4289,7 +4301,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4297,7 +4309,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4305,7 +4317,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4313,7 +4325,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4321,7 +4333,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4329,7 +4341,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4337,7 +4349,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4345,7 +4357,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4353,7 +4365,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4361,7 +4373,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4369,7 +4381,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4377,7 +4389,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4385,7 +4397,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4393,7 +4405,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4401,7 +4413,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4409,7 +4421,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4417,7 +4429,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4425,7 +4437,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4433,7 +4445,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4441,7 +4453,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4449,7 +4461,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4457,7 +4469,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4465,7 +4477,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4473,7 +4485,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4481,7 +4493,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4489,7 +4501,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4497,7 +4509,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4505,7 +4517,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4513,7 +4525,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4521,7 +4533,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4529,7 +4541,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4537,7 +4549,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4545,7 +4557,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4553,7 +4565,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4561,7 +4573,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4569,7 +4581,23 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>598</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/Base calificaciones/calificaciones_db.xlsx
+++ b/Base calificaciones/calificaciones_db.xlsx
@@ -121,816 +121,816 @@
     <t>AmenazasagravadasArt149bispárr2do</t>
   </si>
   <si>
+    <t>ApropiacióndecosaperdidaotesoroArt175Inc1º</t>
+  </si>
+  <si>
+    <t>ApropiacióndeprendaArt175Inc3º</t>
+  </si>
+  <si>
+    <t>AsociaciónilícitaArt210</t>
+  </si>
+  <si>
+    <t>AtentadoscontraelordenconstitucionalylavidademocráticaArt226</t>
+  </si>
+  <si>
+    <t>AtentadocontralaautoridadArt237</t>
+  </si>
+  <si>
+    <t>AtentadocontralaautoridadagravadoporlacomisiónamanoarmadaArt238Inc1º</t>
+  </si>
+  <si>
+    <t>AtentadocontralaautoridadagravadoporlacomisiónporfuncionariopúblicoArt238Inc3º</t>
+  </si>
+  <si>
+    <t>AtentadoferroviarioArt191Inc1º</t>
+  </si>
+  <si>
+    <t>AtentadoferroviarioconlesionadosArt191Inc3º</t>
+  </si>
+  <si>
+    <t>Autolesiones</t>
+  </si>
+  <si>
+    <t>Averiguacióndecausalesdemuerte</t>
+  </si>
+  <si>
+    <t>AveriguacióndeIlícito</t>
+  </si>
+  <si>
+    <t>Averiguacióndeparadero</t>
+  </si>
+  <si>
+    <t>CalumniasArt109</t>
+  </si>
+  <si>
+    <t>Captaciónpormediostecnológicosdemenordeedadconfinessexuales(Grooming)Art131</t>
+  </si>
+  <si>
+    <t>CercenamientooalteracióndemonedaArt283</t>
+  </si>
+  <si>
+    <t>CirculacióndemonedafalsarecibidadebuenafeArt284</t>
+  </si>
+  <si>
+    <t>CircunvencióndeincapacesArt174Inc2º</t>
+  </si>
+  <si>
+    <t>CoacciónArt149bisinfine</t>
+  </si>
+  <si>
+    <t>CoacciónagravadaArt149ter</t>
+  </si>
+  <si>
+    <t>CohechoactivoArt258</t>
+  </si>
+  <si>
+    <t>CohechoagravadoporlacalidaddelautorArt257</t>
+  </si>
+  <si>
+    <t>CoechoagravadoporlacalidaddelautorArt257</t>
+  </si>
+  <si>
+    <t>CohechopasivoArt256</t>
+  </si>
+  <si>
+    <t>Comisióndedelitodeacciónpública</t>
+  </si>
+  <si>
+    <t>CompulsiónalahuelgaArt158</t>
+  </si>
+  <si>
+    <t>ConcurrenciadeslealArt159</t>
+  </si>
+  <si>
+    <t>CorrupcióndeMenoresAgravada(menorde13años)Art125párr2do</t>
+  </si>
+  <si>
+    <t>CorrupcióndeMenoresAgravada(porelmediooporelvínculo)Art125párr3ro</t>
+  </si>
+  <si>
+    <t>CorrupcióndeMenoresde18añosArt125párr1ro</t>
+  </si>
+  <si>
+    <t>DañoArt183</t>
+  </si>
+  <si>
+    <t>DañoagravadoporelfindeimpedirellibreejerciciodelaautoridadArt184Inc1º</t>
+  </si>
+  <si>
+    <t>DañoagravadoporelempleodesustanciasvenenosasocorrosivasArt184Inc3º</t>
+  </si>
+  <si>
+    <t>Dañoagravadoporserejecutadosencosasdevalorcientífico,culturaloenbienesdeusopúblicoArt184Inc5º</t>
+  </si>
+  <si>
+    <t>DañoagravadoporsucomisiónendespobladoyenbandaArt184Inc4º</t>
+  </si>
+  <si>
+    <t>DañoAgravadoporsucomisiónensistemasInformáticosArt184Inc6º</t>
+  </si>
+  <si>
+    <t>DañoagravadoporelfindeproducirinfecciónocontagioenanimalesdomésticosArt184Inc2º</t>
+  </si>
+  <si>
+    <t>DañoInformáticoArt183infine</t>
+  </si>
+  <si>
+    <t>DefraudaciónHurtoimpropioArt173Inc5º</t>
+  </si>
+  <si>
+    <t>Defraudaciónenlasustancia,calidadocantidaddelascosasArt173Inc1º</t>
+  </si>
+  <si>
+    <t>DefraudaciónInformáticaArt173Inc16º</t>
+  </si>
+  <si>
+    <t>DefraudaciónporabusodefirmaenblancoArt173Inc4º</t>
+  </si>
+  <si>
+    <t>DefraudaciónporadministraciónfraudulentaArt173Inc7º</t>
+  </si>
+  <si>
+    <t>DefraudaciónporautorcalificadoArt173Inc12º</t>
+  </si>
+  <si>
+    <t>DefraudaciónporcontratosimuladoofalsosrecibosArt173Inc6º</t>
+  </si>
+  <si>
+    <t>DefraudaciónpordesbaratamientodederechosacordadosArt173Inc11º</t>
+  </si>
+  <si>
+    <t>DefraudaciónporejecuciónextrajudicialdeinmueblesArt173Inc13º</t>
+  </si>
+  <si>
+    <t>DefraudaciónporretenciónindebidaArt173Inc2º</t>
+  </si>
+  <si>
+    <t>DesapariciónforzadadepersonaArt142terIncterpárr1ro</t>
+  </si>
+  <si>
+    <t>DefraudaciónporsuscripciónengañosadedocumentoArt173Inc3º</t>
+  </si>
+  <si>
+    <t>Defraudaciónporusoilícitodetarjetasdecompra,débitoocréditoArt173Inc15º</t>
+  </si>
+  <si>
+    <t>Denuncia</t>
+  </si>
+  <si>
+    <t>Descarrilamiento,naufragiooaccidenteculposoArt196</t>
+  </si>
+  <si>
+    <t>DesaparicióndemenordediezañosArt147</t>
+  </si>
+  <si>
+    <t>DesobedienciaArt239</t>
+  </si>
+  <si>
+    <t>DestrucciónoalteracióndetérminosolímitesArt181Inc2º</t>
+  </si>
+  <si>
+    <t>DisparodearmadefuegoArt104</t>
+  </si>
+  <si>
+    <t>EmisiónoaceptacióndefacturasdecréditofalsasArt298bis</t>
+  </si>
+  <si>
+    <t>EjercicioilegaldelamedicinaporpréstamodenombreArt208Inc3º</t>
+  </si>
+  <si>
+    <t>EncubrimientoArt277Inc1º</t>
+  </si>
+  <si>
+    <t>EncubrimientoagravadoporánimodelucroArt277Inc3º</t>
+  </si>
+  <si>
+    <t>EncubrimientoagravadopordelitograveArt277Inc3º</t>
+  </si>
+  <si>
+    <t>EncubrimientoagravadoporserfuncionariopúblicoArt277Inc3º</t>
+  </si>
+  <si>
+    <t>EntorpecimientodetransporteoserviciopúblicoArt194</t>
+  </si>
+  <si>
+    <t>EntregaindebidadearmadefuegoArt189bisInc4º</t>
+  </si>
+  <si>
+    <t>EstafaArt172</t>
+  </si>
+  <si>
+    <t>EstafadeseguroypréstamoalagruesaArt174Inc1º</t>
+  </si>
+  <si>
+    <t>EstelionatoArt173Inc9º</t>
+  </si>
+  <si>
+    <t>EstragoArt187</t>
+  </si>
+  <si>
+    <t>EstupefacientesAplicarofacilitarestupefacientes(art5°inccLey23737)</t>
+  </si>
+  <si>
+    <t>EstupefacientesComercializaciónpropiamentedicha(art5inccLey23737)</t>
+  </si>
+  <si>
+    <t>EstupefacientesDistribuír,darenpago,almacenarotransportarestupefaciente(art5°inccLey23737)</t>
+  </si>
+  <si>
+    <t>EstupefacientesEntregaosuministroatítulogratuito(art5inceLey23737)</t>
+  </si>
+  <si>
+    <t>EstupefacientesEntregaosuministroatítulooneroso(art5inceLey23737)</t>
+  </si>
+  <si>
+    <t>EstupefacientesInfracciónart204</t>
+  </si>
+  <si>
+    <t>EstupefacientesInfracciónart204bis</t>
+  </si>
+  <si>
+    <t>EstupefacientesInfracciónart204terdelaLey23737</t>
+  </si>
+  <si>
+    <t>EstupefacientesInfracciónart204cuater</t>
+  </si>
+  <si>
+    <t>EstupefacientesInfracciónart5°penúltimopárrafodelaley23737</t>
+  </si>
+  <si>
+    <t>EstupefacientesInfracciónart5°últimopárrafodelaley23737</t>
+  </si>
+  <si>
+    <t>Estupefacientessiembraocultivooguardadesemillasparalaproduccióndesustanciasestupefacientes(art5incaley23737)</t>
+  </si>
+  <si>
+    <t>EstupefacientesTenenciaconfinesdecomercialización(art5inccLey23737)</t>
+  </si>
+  <si>
+    <t>EstupefacientesTenenciaparaconsumopersonal(art14segundoparrafoLey23737)</t>
+  </si>
+  <si>
+    <t>EstupefacientesTenenciasimple(art14primerpárrafoLey23737)</t>
+  </si>
+  <si>
+    <t>EstuproArt120párr1ro</t>
+  </si>
+  <si>
+    <t>EstuproAgravadoArt120párr2do</t>
+  </si>
+  <si>
+    <t>EvasiónArt280</t>
+  </si>
+  <si>
+    <t>ExaccionesilegalesArt266</t>
+  </si>
+  <si>
+    <t>ExaccionesilegalesagravadasporelmedioempleadoArt267</t>
+  </si>
+  <si>
+    <t>ExhibicionesobscenasArt129párr1ro</t>
+  </si>
+  <si>
+    <t>ExhibicionesobscenasagravadasArt129párr2do</t>
+  </si>
+  <si>
+    <t>ExpedicióndecertificadosmédicosfalsosArt295</t>
+  </si>
+  <si>
+    <t>ExplotacióneconómicadelejerciciodelaprostitucióndemayoresArt127párr1ro</t>
+  </si>
+  <si>
+    <t>ExplotacióneconómicadelejerciciodelaprostitucióndemayoresAgravadaArt127párr2do</t>
+  </si>
+  <si>
+    <t>Explotacióneconómicadelejerciciodelaprostitucióndemenoresde18añosArt127infine</t>
+  </si>
+  <si>
+    <t>ExtorsiónArt168</t>
+  </si>
+  <si>
+    <t>ExtorsiónporchantageArt169</t>
+  </si>
+  <si>
+    <t>Facilitamientodelaccesoaespectáculospornográficososuministrodematerialpornográficoamenoresde14añosArt128párr3ro</t>
+  </si>
+  <si>
+    <t>FalsadenunciaArt245</t>
+  </si>
+  <si>
+    <t>Falsificacióndemarcas,contraseñasofirmasArt289Inc1º</t>
+  </si>
+  <si>
+    <t>Falsificacióndesellos,timbresymarcasagravadoporlacalidaddelautorArt291</t>
+  </si>
+  <si>
+    <t>FalsificacióndemonedaArt282</t>
+  </si>
+  <si>
+    <t>FalsificacióndesellosoficialesArt288Inc1º</t>
+  </si>
+  <si>
+    <t>FalsificaciónoadulteraciónideológicadedocumentosArt293</t>
+  </si>
+  <si>
+    <t>FalsificaciónoadulteraciónideológicadedocumentosagravadaArt293infine</t>
+  </si>
+  <si>
+    <t>FalsificaciónoadulteraciónmaterialdedocumentosArt292</t>
+  </si>
+  <si>
+    <t>FalsificaciónoadulteraciónmaterialdedocumentosagravadaArt292infine</t>
+  </si>
+  <si>
+    <t>FalsificaciónuomisiónmaliciosadedatosArt2683párr3ro</t>
+  </si>
+  <si>
+    <t>Falsificación,alteraciónosupresióndelanumeracióndeunobjetoregistrableArt289Inc3º</t>
+  </si>
+  <si>
+    <t>FalsotestimonioArt275</t>
+  </si>
+  <si>
+    <t>FraudecomercialoindustrialArt174Inc6º</t>
+  </si>
+  <si>
+    <t>FraudeenperjuiciodelaadministraciónpúblicaArt174Inc5º</t>
+  </si>
+  <si>
+    <t>Hallazgo</t>
+  </si>
+  <si>
+    <t>Hallazgodeautomotor</t>
+  </si>
+  <si>
+    <t>Hallazgodemotovehículo</t>
+  </si>
+  <si>
+    <t>HomicidioArt79</t>
+  </si>
+  <si>
+    <t>HomicidioagravadocriminiscausaArt80Inc7º</t>
+  </si>
+  <si>
+    <t>HomicidioagravadoporconcursopremeditadodedosomáspersonasArt80Inc6º</t>
+  </si>
+  <si>
+    <t>HomicidioagravadoporelvínculoArt80Inc1º</t>
+  </si>
+  <si>
+    <t>HomicidioculposoArt84</t>
+  </si>
+  <si>
+    <t>Homicidiodeunamujercometidoporunhombremediandoviolenciadegénero(Femicidio)Art80Inc11°</t>
+  </si>
+  <si>
+    <t>HomicidioenestadodeemociónviolentaArt81Inc1a)</t>
+  </si>
+  <si>
+    <t>HomicidioenocasiónderoboArt165</t>
+  </si>
+  <si>
+    <t>HomicidioenriñaArt95</t>
+  </si>
+  <si>
+    <t>HomicidiopreterintencionalArt81Inc1B)</t>
+  </si>
+  <si>
+    <t>HurtoArt162</t>
+  </si>
+  <si>
+    <t>Hurtoagravado(calamitoso)Art163Inc2º</t>
+  </si>
+  <si>
+    <t>Hurtoagravado(campestre)Art163Inc1º</t>
+  </si>
+  <si>
+    <t>Hurtoagravado(conescalamiento)Art163Inc4º</t>
+  </si>
+  <si>
+    <t>Hurtoagravado(conganzúa,llavefalsa,uotroinstrumento)Art163Inc3º</t>
+  </si>
+  <si>
+    <t>Hurtoagravado(mercaderíaentránsito)Art163Inc5º</t>
+  </si>
+  <si>
+    <t>Hurtoagravado(vehículodejadoenlavíapública)Art163Inc6º</t>
+  </si>
+  <si>
+    <t>HurtoagravadoporlacalidaddeautorArt163bis</t>
+  </si>
+  <si>
+    <t>ImpedimentooestorboalacirculacióndepublicacionesArt161</t>
+  </si>
+  <si>
+    <t>ImpedimentooturbacióndereuniónlícitaArt160</t>
+  </si>
+  <si>
+    <t>IncendioodestruccióndebienesruralesArt186Inc2º</t>
+  </si>
+  <si>
+    <t>IncendiooestragoculposoArt189</t>
+  </si>
+  <si>
+    <t>IncendiooestragoculposoagravadoArt189infine</t>
+  </si>
+  <si>
+    <t>Incendio,explosiónoinundaciónconpeligrocomúnparalosbienesArt186Inc1º</t>
+  </si>
+  <si>
+    <t>Incendio,explosiónoinundaciónconpeligrodemuerteArt186Inc4º</t>
+  </si>
+  <si>
+    <t>Incendio,explosiónoinundaciónconpeligroparabienesdeterminadosArt186Inc3º</t>
+  </si>
+  <si>
+    <t>Incendio,explosiónoinundaciónseguidodemuerteArt186Inc5º</t>
+  </si>
+  <si>
+    <t>IncitaciónalaviolenciacolectivaArt212</t>
+  </si>
+  <si>
+    <t>IncumplimientodelosdeberesdefuncionariopúblicoArt248infine</t>
+  </si>
+  <si>
+    <t>Inducciónalafugadeunmenor,mayordediezymenordequinceañosArt148</t>
+  </si>
+  <si>
+    <t>InfracciónLeynº13944(IncumplimientodeberesdeAsistenciaFamiliar)</t>
+  </si>
+  <si>
+    <t>InfracciónLeynº14346(Malostratosyactosdecrueldadalosanimales)</t>
+  </si>
+  <si>
+    <t>InfracciónLeynº22421(ConservacióndelaFauna)</t>
+  </si>
+  <si>
+    <t>InfracciónLeynº23592(PenalizacióndeActosDiscriminatorios)</t>
+  </si>
+  <si>
+    <t>InfracciónLeynº24051(LeydeResiduosPeligrosos)</t>
+  </si>
+  <si>
+    <t>InfracciónLeynº24192(ViolenciaenEspectáculosDeportivos)</t>
+  </si>
+  <si>
+    <t>InfracciónLeynº25156(DefensadelConsumidor)</t>
+  </si>
+  <si>
+    <t>InfracciónLeynº24270(ImpedimentodeContacto)</t>
+  </si>
+  <si>
+    <t>InfracciónLeynº25761(DesarmadodeAutomotores)</t>
+  </si>
+  <si>
+    <t>InjuriasArt110</t>
+  </si>
+  <si>
+    <t>InstigaciónpúblicaacometerdelitosdeterminadosArt209</t>
+  </si>
+  <si>
+    <t>InstigaciónyayudaalsuicidioArt83</t>
+  </si>
+  <si>
+    <t>InterrupciónoentorpecimientodecomunicacionestelegráficasotelefónicasArt197</t>
+  </si>
+  <si>
+    <t>IntimidaciónpúblicaArt211</t>
+  </si>
+  <si>
+    <t>IntimidaciónpúblicaagravadaArt211infine</t>
+  </si>
+  <si>
+    <t>JuegoClandestinoArt301bis</t>
+  </si>
+  <si>
+    <t>Lesionesagravadasartículo89Art92</t>
+  </si>
+  <si>
+    <t>Lesionesagravadasartículo90Art92</t>
+  </si>
+  <si>
+    <t>Lesionesagravadasartículo91Art92</t>
+  </si>
+  <si>
+    <t>LesionesculposasArt94</t>
+  </si>
+  <si>
+    <t>LesionesculposasagravadasporpluralidaddevíctimasArt94infine</t>
+  </si>
+  <si>
+    <t>LesionesculposasconduccióndevehículoautomotoragravadasporconsumodeestupefacientesoalcoholArt94bispárr2do</t>
+  </si>
+  <si>
+    <t>LesionesculposasconduccióndevehículoautomotoragravadasporculpatemerariaArt94bispárr2do</t>
+  </si>
+  <si>
+    <t>LesionesculposasconduccióndevehículoautomotoragravadasporexcesodevelocidadArt94bispárr2do</t>
+  </si>
+  <si>
+    <t>LesionesculposasconduccióndevehículoautomotoragravadasporlafugaoausenciadesocorroalavíctimaArt94bispárr2do</t>
+  </si>
+  <si>
+    <t>LesionesculposasconduccióndevehículoautomotoragravadasporlapluralidaddevíctimasfatalesArt94bispárr2do</t>
+  </si>
+  <si>
+    <t>LesionesculposasconduccióndevehículoautomotoragravadasporlaviolacióndesemáforoodelasseñalestránsitoArt94bispárr2do</t>
+  </si>
+  <si>
+    <t>LesionesculposasconduccióndevehículoautomotoragravadaspornocontarconlahabilitacióndelaautoridadcompetenteArt94bispárr2do</t>
+  </si>
+  <si>
+    <t>LesionesculposasconduccióndevehículoautomotorArt94bis</t>
+  </si>
+  <si>
+    <t>LesionesculposasagravadasArt94</t>
+  </si>
+  <si>
+    <t>Lesionesenestadodeemociónviolentaartículo89Art93</t>
+  </si>
+  <si>
+    <t>LesionesculposasagravadasporconduccióndevehículoautomotorArt94infine</t>
+  </si>
+  <si>
+    <t>LesionesgravesArt90</t>
+  </si>
+  <si>
+    <t>LesionesgravesogravísimasenriñaArt95</t>
+  </si>
+  <si>
+    <t>LesionesgravísimasArt91</t>
+  </si>
+  <si>
+    <t>LesioneslevesArt89</t>
+  </si>
+  <si>
+    <t>LesioneslevesenriñaArt96</t>
+  </si>
+  <si>
+    <t>LibramientodechequeconimposibilidadlegaldepagoArt302Inc2º</t>
+  </si>
+  <si>
+    <t>MalversacióndecaudalespúblicosArt260</t>
+  </si>
+  <si>
+    <t>MalversacióndecaudalespúblicosculposaArt262</t>
+  </si>
+  <si>
+    <t>NegativaaentregarbienesArt264infine</t>
+  </si>
+  <si>
+    <t>OrganizaciónopromocióndepruebasilegalesdevelocidadconvehículoautomotorArt193bisinfine</t>
+  </si>
+  <si>
+    <t>PeculadodecaudalesoefectosArt261</t>
+  </si>
+  <si>
+    <t>PortaciónilegaldearmadefuegodeusocivilArt189bisInc2ºpárr3ro</t>
+  </si>
+  <si>
+    <t>PortacionilegaldearmadeguerraArt189bisInc2ºpárr4to</t>
+  </si>
+  <si>
+    <t>PrivaciónabusivadelalibertadArt144bisInc1º</t>
+  </si>
+  <si>
+    <t>Privaciónabusivadelalibertad,vejaciones,severidades,apremiosilegalesagravadosArt144bisinfine</t>
+  </si>
+  <si>
+    <t>PrivaciónilegaldelalibertadArt141</t>
+  </si>
+  <si>
+    <t>PrivaciónilegaldelalibertadagravadaArt142Inc1º</t>
+  </si>
+  <si>
+    <t>PrivaciónilegaldelalibertadagravadaArt142Inc2º</t>
+  </si>
+  <si>
+    <t>PrivaciónilegaldelalibertadagravadaArt142Inc5º</t>
+  </si>
+  <si>
+    <t>Producción,comercialización,etcderepresentacióndemenoresde18añosdedicadosaactividadessexualesArt128párr1ro</t>
+  </si>
+  <si>
+    <t>PromociónofacilitacióndelaprostitucióndemayoresArt125bis</t>
+  </si>
+  <si>
+    <t>PromociónofacilitacióndelaprostitucióndemayoresAgravadaArt126</t>
+  </si>
+  <si>
+    <t>Promociónofacilitacióndelaprostitucióndemenoresde18añosArt126infine</t>
+  </si>
+  <si>
+    <t>PropagacióndeunaenfermedadpeligrosaycontagiosaArt202</t>
+  </si>
+  <si>
+    <t>PropagacióndeunaenfermedadpeligrosaycontagiosaculposoArt203</t>
+  </si>
+  <si>
+    <t>PropagacióndeunaenfermedadpeligrosaycontragiosaculposoArt203</t>
+  </si>
+  <si>
+    <t>ProvocacióndehostilidadesodeenemistadinternacionalArt219</t>
+  </si>
+  <si>
+    <t>PruebailegaldevelocidadconunvehículoautomotorArt193bis</t>
+  </si>
+  <si>
+    <t>PublicaciónoreproduccióndecalumniasoinjuriasArt113</t>
+  </si>
+  <si>
+    <t>QuebrantamientodepenadeinhabilitaciónArt281bis</t>
+  </si>
+  <si>
+    <t>RaptoArt130párr1ro</t>
+  </si>
+  <si>
+    <t>Reducciónaesclavitudoservidumbre,trabajosforzadosocontraermatrimonioservilArt140</t>
+  </si>
+  <si>
+    <t>ResistenciaalaautoridadArt239</t>
+  </si>
+  <si>
+    <t>RoboArt164</t>
+  </si>
+  <si>
+    <t>RoboAgravado(calamitoso)enrelaciónalart163inc2Art167Inc4º</t>
+  </si>
+  <si>
+    <t>RoboAgravado(campestre)enrelaciónalart163inc1Art167Inc4º</t>
+  </si>
+  <si>
+    <t>Roboagravado(comisiónconefracción)Art167Inc3º</t>
+  </si>
+  <si>
+    <t>Roboagravado(comisiónendespobladoyenbanda)Art166Inc2ºinfine</t>
+  </si>
+  <si>
+    <t>Roboagravado(comisiónendespoblado)Art167Inc1º</t>
+  </si>
+  <si>
+    <t>Roboagravado(comisiónenpobladoyenbanda)Art167Inc2º</t>
+  </si>
+  <si>
+    <t>RoboAgravado(conescalamiento)enrelaciónalart163inc4Art167Inc4º</t>
+  </si>
+  <si>
+    <t>RoboAgravado(conganzúa,llavefalsa,uotroinstrumento)enrelaciónalart163inc3Art167Inc4º</t>
+  </si>
+  <si>
+    <t>Roboagravado(integrantedelasfuerzasdeseguridad,policialesodelServPeniten)Art167bis</t>
+  </si>
+  <si>
+    <t>Roboagravado(lesiones)Art166Inc1º</t>
+  </si>
+  <si>
+    <t>RoboAgravado(mercaderíaentránsito)enrelaciónalart163inc5Art167Inc4º</t>
+  </si>
+  <si>
+    <t>Roboagravado(usodearmadefuegonoaptaparaeldisparo)Art166Inc2ºpárr3ro</t>
+  </si>
+  <si>
+    <t>Roboagravado(usodearmadeutilería)Art166Inc2ºpárr3ro</t>
+  </si>
+  <si>
+    <t>Roboagravado(usodearmasdefuego)Art166Inc2ºpárr2do</t>
+  </si>
+  <si>
+    <t>Roboagravado(usodearmas)Art166Inc2ºpárr1ro</t>
+  </si>
+  <si>
+    <t>RoboAgravado(vehículodejadoenlavíapública)enrelaciónalart163inc6Art167Inc4º</t>
+  </si>
+  <si>
+    <t>SecuestroextorsivoArt170</t>
+  </si>
+  <si>
+    <t>SecuestroextorsivoagravadoArt170Inc1º</t>
+  </si>
+  <si>
+    <t>Severidadesvejacionesy/oapremiosilegalesapresosArt144bisInc3º</t>
+  </si>
+  <si>
+    <t>Suicidio</t>
+  </si>
+  <si>
+    <t>SuministroinfieldemedicamentosArt204</t>
+  </si>
+  <si>
+    <t>SupresiónodestruccióndedocumentosArt294</t>
+  </si>
+  <si>
+    <t>SupresiónysuposicióndelestadocivilydelaidentidadagravadoArt139bis</t>
+  </si>
+  <si>
+    <t>Sustracción,retenciónuocultamientodemenordediezañosArt146</t>
+  </si>
+  <si>
+    <t>Sustracción,retenciónuocultamientodepersonaArt142bis</t>
+  </si>
+  <si>
+    <t>Tenenciaderepresentacionessexualesdemenoresde18añosconfinesdedistribuciónocomercializaciónArt128párr2do</t>
+  </si>
+  <si>
+    <t>TenenciailegaldearmadefuegodeusocivilArt189bisInc2ºpárr1ro</t>
+  </si>
+  <si>
+    <t>TenenciailegaldearmadeguerraArt189bisInc2ºpárr2do</t>
+  </si>
+  <si>
+    <t>TrabajoinfantilArt148bis</t>
+  </si>
+  <si>
+    <t>TratadePersonasmenoresde18añosArt145terinfine</t>
+  </si>
+  <si>
+    <t>TratadePesonasMayoresArt145bis</t>
+  </si>
+  <si>
+    <t>TratadePersonasmayoresAgravadaporlaconsumacióndelaexplotaciónArt145terpárr2do</t>
+  </si>
+  <si>
+    <t>TurbacióndeunactolegítimodeautoridadArt241</t>
+  </si>
+  <si>
+    <t>TurbaciónenlaposesiónotenenciadeuninmuebleArt181Inc3º</t>
+  </si>
+  <si>
+    <t>UsodedocumentoocertificadofalsooadulteradoArt296</t>
+  </si>
+  <si>
+    <t>UsuraArt175bispárr1ro</t>
+  </si>
+  <si>
+    <t>UsuraagravadaporlacalidaddelautorArt175bispárr3ro</t>
+  </si>
+  <si>
+    <t>UsurpacióndeautoridadArt246</t>
+  </si>
+  <si>
+    <t>UsurpacióndeinmuebleArt181Inc1º</t>
+  </si>
+  <si>
+    <t>UsurpacióntítulosuhonoresArt247</t>
+  </si>
+  <si>
+    <t>UtilizaciónconfinesdelucrodeinformacionesodatosreservadosArt2681</t>
+  </si>
+  <si>
+    <t>Vejacionesy/oapremiosilegalesenactodeservicioArt144bisInc2º</t>
+  </si>
+  <si>
+    <t>VentademedicamentossinautorizaciónArt204quinquies</t>
+  </si>
+  <si>
+    <t>ViolacióndecorrespondenciaArt153</t>
+  </si>
+  <si>
+    <t>ViolacióndedomicilioArt150</t>
+  </si>
+  <si>
+    <t>ViolacióndeelementosprobatoriosArt255</t>
+  </si>
+  <si>
+    <t>ViolacióndeinmunidadesArt221</t>
+  </si>
+  <si>
+    <t>ViolacióndeleyesdepolicíasanitariaanimalArt206</t>
+  </si>
+  <si>
+    <t>ViolacióndemedidascontraepidemiasArt205</t>
+  </si>
+  <si>
+    <t>ViolacióndesecretoArt156</t>
+  </si>
+  <si>
+    <t>ViolacióndesellosydocumentosArt254</t>
+  </si>
+  <si>
+    <t>FrustraciónmaliciosadepagodechequeArt302Inc3º</t>
+  </si>
+  <si>
+    <t>DesnaturalizacióndechequeArt175Inc4º</t>
+  </si>
+  <si>
+    <t>AbandonodepersonaagravadoArt106párr2do</t>
+  </si>
+  <si>
+    <t>Abigeatoagravado(supresiónoalteracióndemarcasyseñales)Art167quaterInc2º</t>
+  </si>
+  <si>
+    <t>OmisióndelosdeberesdefuncionariodeestablecimientoArt204quater</t>
+  </si>
+  <si>
+    <t>InfracciónLeynº22362(LeydeMarcas)</t>
+  </si>
+  <si>
+    <t>Lesionesgravísimasenestadodeemociónviolentaartículo91Art93</t>
+  </si>
+  <si>
     <t>ApropiacióndecosaajenahabidaporerrorocasofortuitoArt175Inc2º</t>
   </si>
   <si>
-    <t>ApropiacióndecosaperdidaotesoroArt175Inc1º</t>
-  </si>
-  <si>
-    <t>ApropiacióndeprendaArt175Inc3º</t>
-  </si>
-  <si>
-    <t>AsociaciónilícitaArt210</t>
-  </si>
-  <si>
-    <t>AtentadoscontraelordenconstitucionalylavidademocráticaArt226</t>
-  </si>
-  <si>
-    <t>AtentadocontralaautoridadArt237</t>
-  </si>
-  <si>
-    <t>AtentadocontralaautoridadagravadoporlacomisiónamanoarmadaArt238Inc1º</t>
-  </si>
-  <si>
-    <t>AtentadocontralaautoridadagravadoporlacomisiónporfuncionariopúblicoArt238Inc3º</t>
-  </si>
-  <si>
-    <t>AtentadoferroviarioArt191Inc1º</t>
-  </si>
-  <si>
-    <t>AtentadoferroviarioconlesionadosArt191Inc3º</t>
-  </si>
-  <si>
-    <t>Autolesiones</t>
-  </si>
-  <si>
-    <t>Averiguacióndecausalesdemuerte</t>
-  </si>
-  <si>
-    <t>AveriguacióndeIlícito</t>
-  </si>
-  <si>
-    <t>Averiguacióndeparadero</t>
-  </si>
-  <si>
-    <t>CalumniasArt109</t>
-  </si>
-  <si>
-    <t>Captaciónpormediostecnológicosdemenordeedadconfinessexuales(Grooming)Art131</t>
-  </si>
-  <si>
-    <t>CercenamientooalteracióndemonedaArt283</t>
-  </si>
-  <si>
-    <t>CirculacióndemonedafalsarecibidadebuenafeArt284</t>
-  </si>
-  <si>
-    <t>CircunvencióndeincapacesArt174Inc2º</t>
-  </si>
-  <si>
-    <t>CoacciónArt149bisinfine</t>
-  </si>
-  <si>
-    <t>CoacciónagravadaArt149ter</t>
-  </si>
-  <si>
-    <t>CohechoactivoArt258</t>
-  </si>
-  <si>
-    <t>CohechoagravadoporlacalidaddelautorArt257</t>
-  </si>
-  <si>
-    <t>CoechoagravadoporlacalidaddelautorArt257</t>
-  </si>
-  <si>
-    <t>CohechopasivoArt256</t>
-  </si>
-  <si>
-    <t>Comisióndedelitodeacciónpública</t>
-  </si>
-  <si>
-    <t>CompulsiónalahuelgaArt158</t>
-  </si>
-  <si>
-    <t>ConcurrenciadeslealArt159</t>
-  </si>
-  <si>
-    <t>CorrupcióndeMenoresAgravada(menorde13años)Art125párr2do</t>
-  </si>
-  <si>
-    <t>CorrupcióndeMenoresAgravada(porelmediooporelvínculo)Art125párr3ro</t>
-  </si>
-  <si>
-    <t>CorrupcióndeMenoresde18añosArt125párr1ro</t>
-  </si>
-  <si>
-    <t>DañoArt183</t>
-  </si>
-  <si>
-    <t>DañoagravadoporelfindeimpedirellibreejerciciodelaautoridadArt184Inc1º</t>
-  </si>
-  <si>
-    <t>DañoagravadoporelempleodesustanciasvenenosasocorrosivasArt184Inc3º</t>
-  </si>
-  <si>
-    <t>Dañoagravadoporserejecutadosencosasdevalorcientífico,culturaloenbienesdeusopúblicoArt184Inc5º</t>
-  </si>
-  <si>
-    <t>DañoagravadoporsucomisiónendespobladoyenbandaArt184Inc4º</t>
-  </si>
-  <si>
-    <t>DañoAgravadoporsucomisiónensistemasInformáticosArt184Inc6º</t>
-  </si>
-  <si>
-    <t>DañoagravadoporelfindeproducirinfecciónocontagioenanimalesdomésticosArt184Inc2º</t>
-  </si>
-  <si>
-    <t>DañoInformáticoArt183infine</t>
-  </si>
-  <si>
-    <t>DefraudaciónHurtoimpropioArt173Inc5º</t>
-  </si>
-  <si>
-    <t>Defraudaciónenlasustancia,calidadocantidaddelascosasArt173Inc1º</t>
-  </si>
-  <si>
-    <t>DefraudaciónInformáticaArt173Inc16º</t>
-  </si>
-  <si>
-    <t>DefraudaciónporabusodefirmaenblancoArt173Inc4º</t>
-  </si>
-  <si>
-    <t>DefraudaciónporadministraciónfraudulentaArt173Inc7º</t>
-  </si>
-  <si>
-    <t>DefraudaciónporautorcalificadoArt173Inc12º</t>
-  </si>
-  <si>
-    <t>DefraudaciónporcontratosimuladoofalsosrecibosArt173Inc6º</t>
-  </si>
-  <si>
-    <t>DefraudaciónpordesbaratamientodederechosacordadosArt173Inc11º</t>
-  </si>
-  <si>
-    <t>DefraudaciónporejecuciónextrajudicialdeinmueblesArt173Inc13º</t>
-  </si>
-  <si>
-    <t>DefraudaciónporretenciónindebidaArt173Inc2º</t>
-  </si>
-  <si>
-    <t>DesapariciónforzadadepersonaArt142terIncterpárr1ro</t>
-  </si>
-  <si>
-    <t>DefraudaciónporsuscripciónengañosadedocumentoArt173Inc3º</t>
-  </si>
-  <si>
-    <t>Defraudaciónporusoilícitodetarjetasdecompra,débitoocréditoArt173Inc15º</t>
-  </si>
-  <si>
-    <t>Denuncia</t>
-  </si>
-  <si>
-    <t>Descarrilamiento,naufragiooaccidenteculposoArt196</t>
-  </si>
-  <si>
-    <t>DesaparicióndemenordediezañosArt147</t>
-  </si>
-  <si>
-    <t>DesobedienciaArt239</t>
-  </si>
-  <si>
-    <t>DestrucciónoalteracióndetérminosolímitesArt181Inc2º</t>
-  </si>
-  <si>
-    <t>DisparodearmadefuegoArt104</t>
-  </si>
-  <si>
-    <t>EmisiónoaceptacióndefacturasdecréditofalsasArt298bis</t>
-  </si>
-  <si>
-    <t>EjercicioilegaldelamedicinaporpréstamodenombreArt208Inc3º</t>
-  </si>
-  <si>
-    <t>EncubrimientoArt277Inc1º</t>
-  </si>
-  <si>
-    <t>EncubrimientoagravadoporánimodelucroArt277Inc3º</t>
-  </si>
-  <si>
-    <t>EncubrimientoagravadopordelitograveArt277Inc3º</t>
-  </si>
-  <si>
-    <t>EncubrimientoagravadoporserfuncionariopúblicoArt277Inc3º</t>
-  </si>
-  <si>
-    <t>EntorpecimientodetransporteoserviciopúblicoArt194</t>
-  </si>
-  <si>
-    <t>EntregaindebidadearmadefuegoArt189bisInc4º</t>
-  </si>
-  <si>
-    <t>EstafaArt172</t>
-  </si>
-  <si>
-    <t>EstafadeseguroypréstamoalagruesaArt174Inc1º</t>
-  </si>
-  <si>
-    <t>EstelionatoArt173Inc9º</t>
-  </si>
-  <si>
-    <t>EstragoArt187</t>
-  </si>
-  <si>
-    <t>EstupefacientesAplicarofacilitarestupefacientes(art5°inccLey23737)</t>
-  </si>
-  <si>
-    <t>EstupefacientesComercializaciónpropiamentedicha(art5inccLey23737)</t>
-  </si>
-  <si>
-    <t>EstupefacientesDistribuír,darenpago,almacenarotransportarestupefaciente(art5°inccLey23737)</t>
-  </si>
-  <si>
-    <t>EstupefacientesEntregaosuministroatítulogratuito(art5inceLey23737)</t>
-  </si>
-  <si>
-    <t>EstupefacientesEntregaosuministroatítulooneroso(art5inceLey23737)</t>
-  </si>
-  <si>
-    <t>EstupefacientesInfracciónart204</t>
-  </si>
-  <si>
-    <t>EstupefacientesInfracciónart204bis</t>
-  </si>
-  <si>
-    <t>EstupefacientesInfracciónart204terdelaLey23737</t>
-  </si>
-  <si>
-    <t>EstupefacientesInfracciónart204cuater</t>
-  </si>
-  <si>
-    <t>EstupefacientesInfracciónart5°penúltimopárrafodelaley23737</t>
-  </si>
-  <si>
-    <t>EstupefacientesInfracciónart5°últimopárrafodelaley23737</t>
-  </si>
-  <si>
-    <t>Estupefacientessiembraocultivooguardadesemillasparalaproduccióndesustanciasestupefacientes(art5incaley23737)</t>
-  </si>
-  <si>
-    <t>EstupefacientesTenenciaconfinesdecomercialización(art5inccLey23737)</t>
-  </si>
-  <si>
-    <t>EstupefacientesTenenciaparaconsumopersonal(art14segundoparrafoLey23737)</t>
-  </si>
-  <si>
-    <t>EstupefacientesTenenciasimple(art14primerpárrafoLey23737)</t>
-  </si>
-  <si>
-    <t>EstuproArt120párr1ro</t>
-  </si>
-  <si>
-    <t>EstuproAgravadoArt120párr2do</t>
-  </si>
-  <si>
-    <t>EvasiónArt280</t>
-  </si>
-  <si>
-    <t>ExaccionesilegalesArt266</t>
-  </si>
-  <si>
-    <t>ExaccionesilegalesagravadasporelmedioempleadoArt267</t>
-  </si>
-  <si>
-    <t>ExhibicionesobscenasArt129párr1ro</t>
-  </si>
-  <si>
-    <t>ExhibicionesobscenasagravadasArt129párr2do</t>
-  </si>
-  <si>
-    <t>ExpedicióndecertificadosmédicosfalsosArt295</t>
-  </si>
-  <si>
-    <t>ExplotacióneconómicadelejerciciodelaprostitucióndemayoresArt127párr1ro</t>
-  </si>
-  <si>
-    <t>ExplotacióneconómicadelejerciciodelaprostitucióndemayoresAgravadaArt127párr2do</t>
-  </si>
-  <si>
-    <t>Explotacióneconómicadelejerciciodelaprostitucióndemenoresde18añosArt127infine</t>
-  </si>
-  <si>
-    <t>ExtorsiónArt168</t>
-  </si>
-  <si>
-    <t>ExtorsiónporchantageArt169</t>
-  </si>
-  <si>
-    <t>Facilitamientodelaccesoaespectáculospornográficososuministrodematerialpornográficoamenoresde14añosArt128párr3ro</t>
-  </si>
-  <si>
-    <t>FalsadenunciaArt245</t>
-  </si>
-  <si>
-    <t>Falsificacióndemarcas,contraseñasofirmasArt289Inc1º</t>
-  </si>
-  <si>
-    <t>Falsificacióndesellos,timbresymarcasagravadoporlacalidaddelautorArt291</t>
-  </si>
-  <si>
-    <t>FalsificacióndemonedaArt282</t>
-  </si>
-  <si>
-    <t>FalsificacióndesellosoficialesArt288Inc1º</t>
-  </si>
-  <si>
-    <t>FalsificaciónoadulteraciónideológicadedocumentosArt293</t>
-  </si>
-  <si>
-    <t>FalsificaciónoadulteraciónideológicadedocumentosagravadaArt293infine</t>
-  </si>
-  <si>
-    <t>FalsificaciónoadulteraciónmaterialdedocumentosArt292</t>
-  </si>
-  <si>
-    <t>FalsificaciónoadulteraciónmaterialdedocumentosagravadaArt292infine</t>
-  </si>
-  <si>
-    <t>FalsificaciónuomisiónmaliciosadedatosArt2683párr3ro</t>
-  </si>
-  <si>
-    <t>Falsificación,alteraciónosupresióndelanumeracióndeunobjetoregistrableArt289Inc3º</t>
-  </si>
-  <si>
-    <t>FalsotestimonioArt275</t>
-  </si>
-  <si>
-    <t>FraudecomercialoindustrialArt174Inc6º</t>
-  </si>
-  <si>
-    <t>FraudeenperjuiciodelaadministraciónpúblicaArt174Inc5º</t>
-  </si>
-  <si>
-    <t>Hallazgo</t>
-  </si>
-  <si>
-    <t>Hallazgodeautomotor</t>
-  </si>
-  <si>
-    <t>Hallazgodemotovehículo</t>
-  </si>
-  <si>
-    <t>HomicidioArt79</t>
-  </si>
-  <si>
-    <t>HomicidioagravadocriminiscausaArt80Inc7º</t>
-  </si>
-  <si>
-    <t>HomicidioagravadoporconcursopremeditadodedosomáspersonasArt80Inc6º</t>
-  </si>
-  <si>
-    <t>HomicidioagravadoporelvínculoArt80Inc1º</t>
-  </si>
-  <si>
-    <t>HomicidioculposoArt84</t>
-  </si>
-  <si>
-    <t>Homicidiodeunamujercometidoporunhombremediandoviolenciadegénero(Femicidio)Art80Inc11°</t>
-  </si>
-  <si>
-    <t>HomicidioenestadodeemociónviolentaArt81Inc1a)</t>
-  </si>
-  <si>
-    <t>HomicidioenocasiónderoboArt165</t>
-  </si>
-  <si>
-    <t>HomicidioenriñaArt95</t>
-  </si>
-  <si>
-    <t>HomicidiopreterintencionalArt81Inc1B)</t>
-  </si>
-  <si>
-    <t>HurtoArt162</t>
-  </si>
-  <si>
-    <t>Hurtoagravado(calamitoso)Art163Inc2º</t>
-  </si>
-  <si>
-    <t>Hurtoagravado(campestre)Art163Inc1º</t>
-  </si>
-  <si>
-    <t>Hurtoagravado(conescalamiento)Art163Inc4º</t>
-  </si>
-  <si>
-    <t>Hurtoagravado(conganzúa,llavefalsa,uotroinstrumento)Art163Inc3º</t>
-  </si>
-  <si>
-    <t>Hurtoagravado(mercaderíaentránsito)Art163Inc5º</t>
-  </si>
-  <si>
-    <t>Hurtoagravado(vehículodejadoenlavíapública)Art163Inc6º</t>
-  </si>
-  <si>
-    <t>HurtoagravadoporlacalidaddeautorArt163bis</t>
-  </si>
-  <si>
-    <t>ImpedimentooestorboalacirculacióndepublicacionesArt161</t>
-  </si>
-  <si>
-    <t>ImpedimentooturbacióndereuniónlícitaArt160</t>
-  </si>
-  <si>
-    <t>IncendioodestruccióndebienesruralesArt186Inc2º</t>
-  </si>
-  <si>
-    <t>IncendiooestragoculposoArt189</t>
-  </si>
-  <si>
-    <t>IncendiooestragoculposoagravadoArt189infine</t>
-  </si>
-  <si>
-    <t>Incendio,explosiónoinundaciónconpeligrocomúnparalosbienesArt186Inc1º</t>
-  </si>
-  <si>
-    <t>Incendio,explosiónoinundaciónconpeligrodemuerteArt186Inc4º</t>
-  </si>
-  <si>
-    <t>Incendio,explosiónoinundaciónconpeligroparabienesdeterminadosArt186Inc3º</t>
-  </si>
-  <si>
-    <t>Incendio,explosiónoinundaciónseguidodemuerteArt186Inc5º</t>
-  </si>
-  <si>
-    <t>IncitaciónalaviolenciacolectivaArt212</t>
-  </si>
-  <si>
-    <t>IncumplimientodelosdeberesdefuncionariopúblicoArt248infine</t>
-  </si>
-  <si>
-    <t>Inducciónalafugadeunmenor,mayordediezymenordequinceañosArt148</t>
-  </si>
-  <si>
-    <t>InfracciónLeynº13944(IncumplimientodeberesdeAsistenciaFamiliar)</t>
-  </si>
-  <si>
-    <t>InfracciónLeynº14346(Malostratosyactosdecrueldadalosanimales)</t>
-  </si>
-  <si>
-    <t>InfracciónLeynº22421(ConservacióndelaFauna)</t>
-  </si>
-  <si>
-    <t>InfracciónLeynº23592(PenalizacióndeActosDiscriminatorios)</t>
-  </si>
-  <si>
-    <t>InfracciónLeynº24051(LeydeResiduosPeligrosos)</t>
-  </si>
-  <si>
-    <t>InfracciónLeynº24192(ViolenciaenEspectáculosDeportivos)</t>
-  </si>
-  <si>
-    <t>InfracciónLeynº25156(DefensadelConsumidor)</t>
-  </si>
-  <si>
-    <t>InfracciónLeynº24270(ImpedimentodeContacto)</t>
-  </si>
-  <si>
-    <t>InfracciónLeynº25761(DesarmadodeAutomotores)</t>
-  </si>
-  <si>
-    <t>InjuriasArt110</t>
-  </si>
-  <si>
-    <t>InstigaciónpúblicaacometerdelitosdeterminadosArt209</t>
-  </si>
-  <si>
-    <t>InstigaciónyayudaalsuicidioArt83</t>
-  </si>
-  <si>
-    <t>InterrupciónoentorpecimientodecomunicacionestelegráficasotelefónicasArt197</t>
-  </si>
-  <si>
-    <t>IntimidaciónpúblicaArt211</t>
-  </si>
-  <si>
-    <t>IntimidaciónpúblicaagravadaArt211infine</t>
-  </si>
-  <si>
-    <t>JuegoClandestinoArt301bis</t>
-  </si>
-  <si>
-    <t>Lesionesagravadasartículo89Art92</t>
-  </si>
-  <si>
-    <t>Lesionesagravadasartículo90Art92</t>
-  </si>
-  <si>
-    <t>Lesionesagravadasartículo91Art92</t>
-  </si>
-  <si>
-    <t>LesionesculposasArt94</t>
-  </si>
-  <si>
-    <t>LesionesculposasagravadasporpluralidaddevíctimasArt94infine</t>
-  </si>
-  <si>
-    <t>LesionesculposasconduccióndevehículoautomotoragravadasporconsumodeestupefacientesoalcoholArt94bispárr2do</t>
-  </si>
-  <si>
-    <t>LesionesculposasconduccióndevehículoautomotoragravadasporculpatemerariaArt94bispárr2do</t>
-  </si>
-  <si>
-    <t>LesionesculposasconduccióndevehículoautomotoragravadasporexcesodevelocidadArt94bispárr2do</t>
-  </si>
-  <si>
-    <t>LesionesculposasconduccióndevehículoautomotoragravadasporlafugaoausenciadesocorroalavíctimaArt94bispárr2do</t>
-  </si>
-  <si>
-    <t>LesionesculposasconduccióndevehículoautomotoragravadasporlapluralidaddevíctimasfatalesArt94bispárr2do</t>
-  </si>
-  <si>
-    <t>LesionesculposasconduccióndevehículoautomotoragravadasporlaviolacióndesemáforoodelasseñalestránsitoArt94bispárr2do</t>
-  </si>
-  <si>
-    <t>LesionesculposasconduccióndevehículoautomotoragravadaspornocontarconlahabilitacióndelaautoridadcompetenteArt94bispárr2do</t>
-  </si>
-  <si>
-    <t>LesionesculposasconduccióndevehículoautomotorArt94bis</t>
-  </si>
-  <si>
-    <t>LesionesculposasagravadasArt94</t>
-  </si>
-  <si>
-    <t>Lesionesenestadodeemociónviolentaartículo89Art93</t>
-  </si>
-  <si>
-    <t>LesionesculposasagravadasporconduccióndevehículoautomotorArt94infine</t>
-  </si>
-  <si>
-    <t>LesionesgravesArt90</t>
-  </si>
-  <si>
-    <t>LesionesgravesogravísimasenriñaArt95</t>
-  </si>
-  <si>
-    <t>LesionesgravísimasArt91</t>
-  </si>
-  <si>
-    <t>LesioneslevesArt89</t>
-  </si>
-  <si>
-    <t>LesioneslevesenriñaArt96</t>
-  </si>
-  <si>
-    <t>LibramientodechequeconimposibilidadlegaldepagoArt302Inc2º</t>
-  </si>
-  <si>
-    <t>MalversacióndecaudalespúblicosArt260</t>
-  </si>
-  <si>
-    <t>MalversacióndecaudalespúblicosculposaArt262</t>
-  </si>
-  <si>
-    <t>NegativaaentregarbienesArt264infine</t>
-  </si>
-  <si>
-    <t>OrganizaciónopromocióndepruebasilegalesdevelocidadconvehículoautomotorArt193bisinfine</t>
-  </si>
-  <si>
-    <t>PeculadodecaudalesoefectosArt261</t>
-  </si>
-  <si>
-    <t>PortaciónilegaldearmadefuegodeusocivilArt189bisInc2ºpárr3ro</t>
-  </si>
-  <si>
-    <t>PortacionilegaldearmadeguerraArt189bisInc2ºpárr4to</t>
-  </si>
-  <si>
-    <t>PrivaciónabusivadelalibertadArt144bisInc1º</t>
-  </si>
-  <si>
-    <t>Privaciónabusivadelalibertad,vejaciones,severidades,apremiosilegalesagravadosArt144bisinfine</t>
-  </si>
-  <si>
-    <t>PrivaciónilegaldelalibertadArt141</t>
-  </si>
-  <si>
-    <t>PrivaciónilegaldelalibertadagravadaArt142Inc1º</t>
-  </si>
-  <si>
-    <t>PrivaciónilegaldelalibertadagravadaArt142Inc2º</t>
-  </si>
-  <si>
-    <t>PrivaciónilegaldelalibertadagravadaArt142Inc5º</t>
-  </si>
-  <si>
-    <t>Producción,comercialización,etcderepresentacióndemenoresde18añosdedicadosaactividadessexualesArt128párr1ro</t>
-  </si>
-  <si>
-    <t>PromociónofacilitacióndelaprostitucióndemayoresArt125bis</t>
-  </si>
-  <si>
-    <t>PromociónofacilitacióndelaprostitucióndemayoresAgravadaArt126</t>
-  </si>
-  <si>
-    <t>Promociónofacilitacióndelaprostitucióndemenoresde18añosArt126infine</t>
-  </si>
-  <si>
-    <t>PropagacióndeunaenfermedadpeligrosaycontagiosaArt202</t>
-  </si>
-  <si>
-    <t>PropagacióndeunaenfermedadpeligrosaycontagiosaculposoArt203</t>
-  </si>
-  <si>
-    <t>PropagacióndeunaenfermedadpeligrosaycontragiosaculposoArt203</t>
-  </si>
-  <si>
-    <t>ProvocacióndehostilidadesodeenemistadinternacionalArt219</t>
-  </si>
-  <si>
-    <t>PruebailegaldevelocidadconunvehículoautomotorArt193bis</t>
-  </si>
-  <si>
-    <t>PublicaciónoreproduccióndecalumniasoinjuriasArt113</t>
-  </si>
-  <si>
-    <t>QuebrantamientodepenadeinhabilitaciónArt281bis</t>
-  </si>
-  <si>
-    <t>RaptoArt130párr1ro</t>
-  </si>
-  <si>
-    <t>Reducciónaesclavitudoservidumbre,trabajosforzadosocontraermatrimonioservilArt140</t>
-  </si>
-  <si>
-    <t>ResistenciaalaautoridadArt239</t>
-  </si>
-  <si>
-    <t>RoboArt164</t>
-  </si>
-  <si>
-    <t>RoboAgravado(calamitoso)enrelaciónalart163inc2Art167Inc4º</t>
-  </si>
-  <si>
-    <t>RoboAgravado(campestre)enrelaciónalart163inc1Art167Inc4º</t>
-  </si>
-  <si>
-    <t>Roboagravado(comisiónconefracción)Art167Inc3º</t>
-  </si>
-  <si>
-    <t>Roboagravado(comisiónendespobladoyenbanda)Art166Inc2ºinfine</t>
-  </si>
-  <si>
-    <t>Roboagravado(comisiónendespoblado)Art167Inc1º</t>
-  </si>
-  <si>
-    <t>Roboagravado(comisiónenpobladoyenbanda)Art167Inc2º</t>
-  </si>
-  <si>
-    <t>RoboAgravado(conescalamiento)enrelaciónalart163inc4Art167Inc4º</t>
-  </si>
-  <si>
-    <t>RoboAgravado(conganzúa,llavefalsa,uotroinstrumento)enrelaciónalart163inc3Art167Inc4º</t>
-  </si>
-  <si>
-    <t>Roboagravado(integrantedelasfuerzasdeseguridad,policialesodelServPeniten)Art167bis</t>
-  </si>
-  <si>
-    <t>Roboagravado(lesiones)Art166Inc1º</t>
-  </si>
-  <si>
-    <t>RoboAgravado(mercaderíaentránsito)enrelaciónalart163inc5Art167Inc4º</t>
-  </si>
-  <si>
-    <t>Roboagravado(usodearmadefuegonoaptaparaeldisparo)Art166Inc2ºpárr3ro</t>
-  </si>
-  <si>
-    <t>Roboagravado(usodearmadeutilería)Art166Inc2ºpárr3ro</t>
-  </si>
-  <si>
-    <t>Roboagravado(usodearmasdefuego)Art166Inc2ºpárr2do</t>
-  </si>
-  <si>
-    <t>Roboagravado(usodearmas)Art166Inc2ºpárr1ro</t>
-  </si>
-  <si>
-    <t>RoboAgravado(vehículodejadoenlavíapública)enrelaciónalart163inc6Art167Inc4º</t>
-  </si>
-  <si>
-    <t>SecuestroextorsivoArt170</t>
-  </si>
-  <si>
-    <t>SecuestroextorsivoagravadoArt170Inc1º</t>
-  </si>
-  <si>
-    <t>Severidadesvejacionesy/oapremiosilegalesapresosArt144bisInc3º</t>
-  </si>
-  <si>
-    <t>Suicidio</t>
-  </si>
-  <si>
-    <t>SuministroinfieldemedicamentosArt204</t>
-  </si>
-  <si>
-    <t>SupresiónodestruccióndedocumentosArt294</t>
-  </si>
-  <si>
-    <t>SupresiónysuposicióndelestadocivilydelaidentidadagravadoArt139bis</t>
-  </si>
-  <si>
-    <t>Sustracción,retenciónuocultamientodemenordediezañosArt146</t>
-  </si>
-  <si>
-    <t>Sustracción,retenciónuocultamientodepersonaArt142bis</t>
-  </si>
-  <si>
-    <t>Tenenciaderepresentacionessexualesdemenoresde18añosconfinesdedistribuciónocomercializaciónArt128párr2do</t>
-  </si>
-  <si>
-    <t>TenenciailegaldearmadefuegodeusocivilArt189bisInc2ºpárr1ro</t>
-  </si>
-  <si>
-    <t>TenenciailegaldearmadeguerraArt189bisInc2ºpárr2do</t>
-  </si>
-  <si>
-    <t>TrabajoinfantilArt148bis</t>
-  </si>
-  <si>
-    <t>TratadePersonasmenoresde18añosArt145terinfine</t>
-  </si>
-  <si>
-    <t>TratadePesonasMayoresArt145bis</t>
-  </si>
-  <si>
-    <t>TratadePersonasmayoresAgravadaporlaconsumacióndelaexplotaciónArt145terpárr2do</t>
-  </si>
-  <si>
-    <t>TurbacióndeunactolegítimodeautoridadArt241</t>
-  </si>
-  <si>
-    <t>TurbaciónenlaposesiónotenenciadeuninmuebleArt181Inc3º</t>
-  </si>
-  <si>
-    <t>UsodedocumentoocertificadofalsooadulteradoArt296</t>
-  </si>
-  <si>
-    <t>UsuraArt175bispárr1ro</t>
-  </si>
-  <si>
-    <t>UsuraagravadaporlacalidaddelautorArt175bispárr3ro</t>
-  </si>
-  <si>
-    <t>UsurpacióndeautoridadArt246</t>
-  </si>
-  <si>
-    <t>UsurpacióndeinmuebleArt181Inc1º</t>
-  </si>
-  <si>
-    <t>UsurpacióntítulosuhonoresArt247</t>
-  </si>
-  <si>
-    <t>UtilizaciónconfinesdelucrodeinformacionesodatosreservadosArt2681</t>
-  </si>
-  <si>
-    <t>Vejacionesy/oapremiosilegalesenactodeservicioArt144bisInc2º</t>
-  </si>
-  <si>
-    <t>VentademedicamentossinautorizaciónArt204quinquies</t>
-  </si>
-  <si>
-    <t>ViolacióndecorrespondenciaArt153</t>
-  </si>
-  <si>
-    <t>ViolacióndedomicilioArt150</t>
-  </si>
-  <si>
-    <t>ViolacióndeelementosprobatoriosArt255</t>
-  </si>
-  <si>
-    <t>ViolacióndeinmunidadesArt221</t>
-  </si>
-  <si>
-    <t>ViolacióndeleyesdepolicíasanitariaanimalArt206</t>
-  </si>
-  <si>
-    <t>ViolacióndemedidascontraepidemiasArt205</t>
-  </si>
-  <si>
-    <t>ViolacióndesecretoArt156</t>
-  </si>
-  <si>
-    <t>ViolacióndesellosydocumentosArt254</t>
-  </si>
-  <si>
-    <t>FrustraciónmaliciosadepagodechequeArt302Inc3º</t>
-  </si>
-  <si>
-    <t>DesnaturalizacióndechequeArt175Inc4º</t>
-  </si>
-  <si>
-    <t>AbandonodepersonaagravadoArt106párr2do</t>
-  </si>
-  <si>
-    <t>Abigeatoagravado(supresiónoalteracióndemarcasyseñales)Art167quaterInc2º</t>
-  </si>
-  <si>
-    <t>OmisióndelosdeberesdefuncionariodeestablecimientoArt204quater</t>
-  </si>
-  <si>
-    <t>InfracciónLeynº22362(LeydeMarcas)</t>
-  </si>
-  <si>
-    <t>Lesionesgravísimasenestadodeemociónviolentaartículo91Art93</t>
-  </si>
-  <si>
     <t>Abandono de persona - Art.106 párr. 1ro</t>
   </si>
   <si>
@@ -1033,9 +1033,6 @@
     <t>Amenazas agravadas - Art.149 bis párr. 2do</t>
   </si>
   <si>
-    <t>hola</t>
-  </si>
-  <si>
     <t>Apropiación de cosa perdida o tesoro - Art.175 Inc.1º</t>
   </si>
   <si>
@@ -1823,6 +1820,9 @@
   </si>
   <si>
     <t>Lesiones gravísimas en estado de emoción violenta artículo 91 - Art.93</t>
+  </si>
+  <si>
+    <t>Apropiación de cosa ajena habida por error o caso fortuito - Art.175 Inc.2º</t>
   </si>
 </sst>
 </file>
@@ -2517,7 +2517,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>348</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>388</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>448</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3349,7 +3349,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>448</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4061,7 +4061,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4285,7 +4285,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>564</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4293,7 +4293,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>266</v>
+        <v>564</v>
       </c>
     </row>
     <row r="268" spans="1:2">

--- a/Base calificaciones/calificaciones_db.xlsx
+++ b/Base calificaciones/calificaciones_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="605">
   <si>
     <t>AbandonodepersonaArt106párr1ro</t>
   </si>
@@ -931,6 +931,9 @@
     <t>ApropiacióndecosaajenahabidaporerrorocasofortuitoArt175Inc2º</t>
   </si>
   <si>
+    <t>CuranderismoArt208Inc1º</t>
+  </si>
+  <si>
     <t>Abandono de persona - Art.106 párr. 1ro</t>
   </si>
   <si>
@@ -1823,6 +1826,9 @@
   </si>
   <si>
     <t>Apropiación de cosa ajena habida por error o caso fortuito - Art.175 Inc.2º</t>
+  </si>
+  <si>
+    <t>Curanderismo - Art.208 Inc.1º</t>
   </si>
 </sst>
 </file>
@@ -2154,7 +2160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B305"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2165,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2173,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2181,7 +2187,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2189,7 +2195,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2197,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2205,7 +2211,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2213,7 +2219,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2221,7 +2227,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2229,7 +2235,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2237,7 +2243,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2245,7 +2251,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2253,7 +2259,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2261,7 +2267,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2269,7 +2275,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2277,7 +2283,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2285,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2293,7 +2299,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2301,7 +2307,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2309,7 +2315,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2317,7 +2323,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2325,7 +2331,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2333,7 +2339,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2341,7 +2347,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2349,7 +2355,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2357,7 +2363,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2365,7 +2371,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2373,7 +2379,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2381,7 +2387,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2389,7 +2395,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2397,7 +2403,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2405,7 +2411,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2413,7 +2419,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2421,7 +2427,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2429,7 +2435,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2437,7 +2443,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2445,7 +2451,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2453,7 +2459,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2461,7 +2467,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2469,7 +2475,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2477,7 +2483,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2485,7 +2491,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2493,7 +2499,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2501,7 +2507,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2509,7 +2515,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2525,7 +2531,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2533,7 +2539,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2541,7 +2547,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2549,7 +2555,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2557,7 +2563,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2565,7 +2571,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2573,7 +2579,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2581,7 +2587,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2589,7 +2595,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2597,7 +2603,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2605,7 +2611,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2613,7 +2619,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2621,7 +2627,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2629,7 +2635,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2637,7 +2643,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2645,7 +2651,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2653,7 +2659,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2661,7 +2667,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2669,7 +2675,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2677,7 +2683,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2685,7 +2691,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2693,7 +2699,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2701,7 +2707,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2709,7 +2715,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2717,7 +2723,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2725,7 +2731,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2733,7 +2739,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2741,7 +2747,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2749,7 +2755,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2757,7 +2763,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2765,7 +2771,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2773,7 +2779,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2781,7 +2787,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2789,7 +2795,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2797,7 +2803,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2805,7 +2811,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2813,7 +2819,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2821,7 +2827,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2829,7 +2835,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2837,7 +2843,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2845,7 +2851,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2861,7 +2867,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2869,7 +2875,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2877,7 +2883,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2885,7 +2891,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2893,7 +2899,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2901,7 +2907,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2909,7 +2915,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2917,7 +2923,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2925,7 +2931,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2933,7 +2939,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2941,7 +2947,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2949,7 +2955,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2957,7 +2963,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2965,7 +2971,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2973,7 +2979,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2981,7 +2987,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2989,7 +2995,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2997,7 +3003,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3005,7 +3011,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3013,7 +3019,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3021,7 +3027,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3029,7 +3035,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3037,7 +3043,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3045,7 +3051,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3053,7 +3059,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3061,7 +3067,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3069,7 +3075,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3077,7 +3083,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3085,7 +3091,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3093,7 +3099,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3101,7 +3107,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3109,7 +3115,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3117,7 +3123,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3125,7 +3131,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3133,7 +3139,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3141,7 +3147,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3149,7 +3155,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3157,7 +3163,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3165,7 +3171,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3173,7 +3179,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3181,7 +3187,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3189,7 +3195,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3197,7 +3203,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3205,7 +3211,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3213,7 +3219,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3221,7 +3227,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3229,7 +3235,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3237,7 +3243,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3245,7 +3251,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3253,7 +3259,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3261,7 +3267,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3269,7 +3275,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3277,7 +3283,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3285,7 +3291,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3293,7 +3299,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3301,7 +3307,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3309,7 +3315,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3317,7 +3323,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3325,7 +3331,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3333,7 +3339,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3349,7 +3355,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3357,7 +3363,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3365,7 +3371,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3373,7 +3379,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3381,7 +3387,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3389,7 +3395,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3397,7 +3403,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3405,7 +3411,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3413,7 +3419,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3421,7 +3427,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3429,7 +3435,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3437,7 +3443,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3445,7 +3451,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3453,7 +3459,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3461,7 +3467,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3469,7 +3475,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3477,7 +3483,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3485,7 +3491,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3493,7 +3499,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3501,7 +3507,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3509,7 +3515,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3517,7 +3523,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3525,7 +3531,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3533,7 +3539,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3541,7 +3547,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3549,7 +3555,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3557,7 +3563,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3565,7 +3571,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3573,7 +3579,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3581,7 +3587,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3589,7 +3595,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3597,7 +3603,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3605,7 +3611,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3613,7 +3619,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3621,7 +3627,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3629,7 +3635,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3637,7 +3643,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3645,7 +3651,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3653,7 +3659,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3661,7 +3667,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3669,7 +3675,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3677,7 +3683,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3685,7 +3691,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3693,7 +3699,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3701,7 +3707,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3709,7 +3715,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3717,7 +3723,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3725,7 +3731,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3733,7 +3739,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3741,7 +3747,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3749,7 +3755,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3757,7 +3763,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3765,7 +3771,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3773,7 +3779,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3781,7 +3787,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3789,7 +3795,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3797,7 +3803,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3805,7 +3811,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3813,7 +3819,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3821,7 +3827,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3829,7 +3835,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3837,7 +3843,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3845,7 +3851,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3853,7 +3859,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3861,7 +3867,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3869,7 +3875,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3877,7 +3883,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3885,7 +3891,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3893,7 +3899,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3901,7 +3907,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3909,7 +3915,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3917,7 +3923,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3925,7 +3931,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3933,7 +3939,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3941,7 +3947,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3949,7 +3955,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3957,7 +3963,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3965,7 +3971,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3973,7 +3979,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3981,7 +3987,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3989,7 +3995,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3997,7 +4003,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4005,7 +4011,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4013,7 +4019,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4021,7 +4027,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4029,7 +4035,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4037,7 +4043,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4045,7 +4051,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4053,7 +4059,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4061,7 +4067,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4069,7 +4075,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4077,7 +4083,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4085,7 +4091,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4093,7 +4099,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4101,7 +4107,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4109,7 +4115,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4117,7 +4123,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4125,7 +4131,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4133,7 +4139,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4141,7 +4147,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4149,7 +4155,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4157,7 +4163,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4165,7 +4171,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4173,7 +4179,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4181,7 +4187,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4189,7 +4195,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4197,7 +4203,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4205,7 +4211,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4213,7 +4219,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4221,7 +4227,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4229,7 +4235,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4237,7 +4243,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4245,7 +4251,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4253,7 +4259,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4261,7 +4267,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4269,7 +4275,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4277,7 +4283,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4293,7 +4299,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4301,7 +4307,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4309,7 +4315,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4317,7 +4323,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4325,7 +4331,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4333,7 +4339,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4341,7 +4347,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4349,7 +4355,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4357,7 +4363,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4365,7 +4371,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4373,7 +4379,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4381,7 +4387,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4389,7 +4395,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4397,7 +4403,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4405,7 +4411,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4413,7 +4419,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4421,7 +4427,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4429,7 +4435,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4437,7 +4443,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4445,7 +4451,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4453,7 +4459,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4461,7 +4467,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4469,7 +4475,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4477,7 +4483,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4485,7 +4491,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4493,7 +4499,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4501,7 +4507,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4509,7 +4515,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4517,7 +4523,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4525,7 +4531,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4533,7 +4539,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4541,7 +4547,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4549,7 +4555,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4557,7 +4563,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4565,7 +4571,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4573,7 +4579,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4581,7 +4587,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4589,7 +4595,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4597,7 +4603,15 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>602</v>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/Base calificaciones/calificaciones_db.xlsx
+++ b/Base calificaciones/calificaciones_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="607">
   <si>
     <t>AbandonodepersonaArt106párr1ro</t>
   </si>
@@ -934,6 +934,9 @@
     <t>CuranderismoArt208Inc1º</t>
   </si>
   <si>
+    <t>UsurpacióndeaguasagravadaporelresultadoArt182infine</t>
+  </si>
+  <si>
     <t>Abandono de persona - Art.106 párr. 1ro</t>
   </si>
   <si>
@@ -1829,6 +1832,9 @@
   </si>
   <si>
     <t>Curanderismo - Art.208 Inc.1º</t>
+  </si>
+  <si>
+    <t>Usurpación de aguas agravada por el resultado - Art.182 in fine</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2171,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2179,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2187,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2195,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2203,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2211,7 +2217,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2219,7 +2225,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2227,7 +2233,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2235,7 +2241,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2243,7 +2249,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2251,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2259,7 +2265,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2267,7 +2273,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2275,7 +2281,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2283,7 +2289,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2291,7 +2297,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2299,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2307,7 +2313,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2315,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2323,7 +2329,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2331,7 +2337,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2339,7 +2345,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2347,7 +2353,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2355,7 +2361,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2363,7 +2369,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2371,7 +2377,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2379,7 +2385,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2387,7 +2393,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2395,7 +2401,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2403,7 +2409,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2411,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2419,7 +2425,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2427,7 +2433,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2435,7 +2441,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2443,7 +2449,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2451,7 +2457,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2459,7 +2465,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2467,7 +2473,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2475,7 +2481,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2483,7 +2489,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2491,7 +2497,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2499,7 +2505,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2507,7 +2513,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2515,7 +2521,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2531,7 +2537,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2539,7 +2545,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2547,7 +2553,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2555,7 +2561,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2563,7 +2569,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2571,7 +2577,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2579,7 +2585,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2587,7 +2593,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2595,7 +2601,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2603,7 +2609,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2611,7 +2617,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2619,7 +2625,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2627,7 +2633,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2635,7 +2641,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2643,7 +2649,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2651,7 +2657,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2659,7 +2665,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2667,7 +2673,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2675,7 +2681,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2683,7 +2689,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2691,7 +2697,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2699,7 +2705,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2707,7 +2713,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2715,7 +2721,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2723,7 +2729,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2731,7 +2737,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2739,7 +2745,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2747,7 +2753,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2755,7 +2761,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2763,7 +2769,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2771,7 +2777,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2779,7 +2785,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2787,7 +2793,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2795,7 +2801,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2803,7 +2809,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2811,7 +2817,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2819,7 +2825,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2827,7 +2833,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2835,7 +2841,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2843,7 +2849,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2851,7 +2857,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2867,7 +2873,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2875,7 +2881,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2883,7 +2889,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2891,7 +2897,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2899,7 +2905,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2907,7 +2913,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2915,7 +2921,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2923,7 +2929,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2931,7 +2937,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2939,7 +2945,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2947,7 +2953,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2955,7 +2961,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2963,7 +2969,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2971,7 +2977,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2979,7 +2985,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2987,7 +2993,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2995,7 +3001,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3003,7 +3009,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3011,7 +3017,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3019,7 +3025,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3027,7 +3033,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3035,7 +3041,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3043,7 +3049,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3051,7 +3057,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3059,7 +3065,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3067,7 +3073,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3075,7 +3081,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3083,7 +3089,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3091,7 +3097,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3099,7 +3105,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3107,7 +3113,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3115,7 +3121,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3123,7 +3129,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3131,7 +3137,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3139,7 +3145,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3147,7 +3153,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3155,7 +3161,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3163,7 +3169,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3171,7 +3177,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3179,7 +3185,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3187,7 +3193,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3195,7 +3201,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3203,7 +3209,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3211,7 +3217,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3219,7 +3225,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3227,7 +3233,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3235,7 +3241,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3243,7 +3249,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3251,7 +3257,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3259,7 +3265,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3267,7 +3273,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3275,7 +3281,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3283,7 +3289,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3291,7 +3297,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3299,7 +3305,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3307,7 +3313,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3315,7 +3321,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3323,7 +3329,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3331,7 +3337,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3339,7 +3345,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3355,7 +3361,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3363,7 +3369,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3371,7 +3377,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3379,7 +3385,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3387,7 +3393,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3395,7 +3401,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3403,7 +3409,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3411,7 +3417,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3419,7 +3425,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3427,7 +3433,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3435,7 +3441,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3443,7 +3449,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3451,7 +3457,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3459,7 +3465,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3467,7 +3473,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3475,7 +3481,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3483,7 +3489,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3491,7 +3497,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3499,7 +3505,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3507,7 +3513,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3515,7 +3521,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3523,7 +3529,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3531,7 +3537,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3539,7 +3545,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3547,7 +3553,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3555,7 +3561,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3563,7 +3569,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3571,7 +3577,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3579,7 +3585,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3587,7 +3593,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3595,7 +3601,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3603,7 +3609,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3611,7 +3617,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3619,7 +3625,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3627,7 +3633,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3635,7 +3641,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3643,7 +3649,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3651,7 +3657,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3659,7 +3665,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3667,7 +3673,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3675,7 +3681,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3683,7 +3689,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3691,7 +3697,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3699,7 +3705,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3707,7 +3713,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3715,7 +3721,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3723,7 +3729,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3731,7 +3737,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3739,7 +3745,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3747,7 +3753,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3755,7 +3761,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3763,7 +3769,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3771,7 +3777,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3779,7 +3785,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3787,7 +3793,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3795,7 +3801,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3803,7 +3809,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3811,7 +3817,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3819,7 +3825,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3827,7 +3833,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3835,7 +3841,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3843,7 +3849,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3851,7 +3857,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3859,7 +3865,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3867,7 +3873,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3875,7 +3881,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3883,7 +3889,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3891,7 +3897,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3899,7 +3905,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3907,7 +3913,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3915,7 +3921,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3923,7 +3929,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3931,7 +3937,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3939,7 +3945,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3947,7 +3953,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3955,7 +3961,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3963,7 +3969,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3971,7 +3977,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3979,7 +3985,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3987,7 +3993,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3995,7 +4001,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4003,7 +4009,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4011,7 +4017,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4019,7 +4025,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4027,7 +4033,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4035,7 +4041,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4043,7 +4049,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4051,7 +4057,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4059,7 +4065,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4067,7 +4073,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4075,7 +4081,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4083,7 +4089,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4091,7 +4097,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4099,7 +4105,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4107,7 +4113,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4115,7 +4121,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4123,7 +4129,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4131,7 +4137,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4139,7 +4145,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4147,7 +4153,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4155,7 +4161,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4163,7 +4169,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4171,7 +4177,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4179,7 +4185,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4187,7 +4193,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4195,7 +4201,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4203,7 +4209,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4211,7 +4217,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4219,7 +4225,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4227,7 +4233,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4235,7 +4241,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4243,7 +4249,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4251,7 +4257,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4259,7 +4265,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4267,7 +4273,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4275,7 +4281,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4283,7 +4289,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4299,7 +4305,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4307,7 +4313,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4315,7 +4321,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4323,7 +4329,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4331,7 +4337,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4339,7 +4345,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4347,7 +4353,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4355,7 +4361,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4363,7 +4369,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4371,7 +4377,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4379,7 +4385,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4387,7 +4393,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4395,7 +4401,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4403,7 +4409,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4411,7 +4417,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4419,7 +4425,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4427,7 +4433,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4435,7 +4441,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4443,7 +4449,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4451,7 +4457,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4459,7 +4465,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4467,7 +4473,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4475,7 +4481,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4483,7 +4489,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4491,7 +4497,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4499,7 +4505,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4507,7 +4513,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4515,7 +4521,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4523,7 +4529,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4531,7 +4537,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4539,7 +4545,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4547,7 +4553,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4555,7 +4561,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4563,7 +4569,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4571,7 +4577,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4579,7 +4585,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4587,7 +4593,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4595,7 +4601,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4603,7 +4609,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4611,7 +4617,15 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>604</v>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/Base calificaciones/calificaciones_db.xlsx
+++ b/Base calificaciones/calificaciones_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="611">
   <si>
     <t>AbandonodepersonaArt106párr1ro</t>
   </si>
@@ -937,6 +937,12 @@
     <t>UsurpacióndeaguasagravadaporelresultadoArt182infine</t>
   </si>
   <si>
+    <t>DefraudaciónporsupresióndedocumentosArt173Inc8º</t>
+  </si>
+  <si>
+    <t>ReproduccionesprohibidaseintrusiónArt224</t>
+  </si>
+  <si>
     <t>Abandono de persona - Art.106 párr. 1ro</t>
   </si>
   <si>
@@ -1835,6 +1841,12 @@
   </si>
   <si>
     <t>Usurpación de aguas agravada por el resultado - Art.182 in fine</t>
+  </si>
+  <si>
+    <t>Defraudación por supresión de documentos - Art.173 Inc.8º</t>
+  </si>
+  <si>
+    <t>Reproducciones prohibidas e intrusión - Art.224</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2177,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2185,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2193,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2201,7 +2213,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2209,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2217,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2225,7 +2237,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2233,7 +2245,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2241,7 +2253,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2249,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2257,7 +2269,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2265,7 +2277,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2273,7 +2285,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2281,7 +2293,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2289,7 +2301,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2297,7 +2309,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2305,7 +2317,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2313,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2321,7 +2333,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2329,7 +2341,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2337,7 +2349,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2345,7 +2357,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2353,7 +2365,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2361,7 +2373,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2369,7 +2381,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2377,7 +2389,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2385,7 +2397,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2393,7 +2405,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2401,7 +2413,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2409,7 +2421,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2417,7 +2429,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2425,7 +2437,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2433,7 +2445,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2441,7 +2453,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2449,7 +2461,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2457,7 +2469,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2465,7 +2477,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2473,7 +2485,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2481,7 +2493,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2489,7 +2501,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2497,7 +2509,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2505,7 +2517,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2513,7 +2525,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2521,7 +2533,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2537,7 +2549,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2545,7 +2557,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2553,7 +2565,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2561,7 +2573,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2569,7 +2581,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2577,7 +2589,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2585,7 +2597,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2593,7 +2605,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2601,7 +2613,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2609,7 +2621,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2617,7 +2629,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2625,7 +2637,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2633,7 +2645,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2641,7 +2653,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2649,7 +2661,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2657,7 +2669,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2665,7 +2677,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2673,7 +2685,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2681,7 +2693,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2689,7 +2701,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2697,7 +2709,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2705,7 +2717,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2713,7 +2725,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2721,7 +2733,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2729,7 +2741,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2737,7 +2749,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2745,7 +2757,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2753,7 +2765,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2761,7 +2773,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2769,7 +2781,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2777,7 +2789,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2785,7 +2797,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2793,7 +2805,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2801,7 +2813,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2809,7 +2821,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2817,7 +2829,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2825,7 +2837,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2833,7 +2845,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2841,7 +2853,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2849,7 +2861,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2857,7 +2869,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2873,7 +2885,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2881,7 +2893,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2889,7 +2901,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2897,7 +2909,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2905,7 +2917,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2913,7 +2925,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2921,7 +2933,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2929,7 +2941,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2937,7 +2949,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2945,7 +2957,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2953,7 +2965,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2961,7 +2973,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2969,7 +2981,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2977,7 +2989,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2985,7 +2997,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2993,7 +3005,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3001,7 +3013,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3009,7 +3021,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3017,7 +3029,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3025,7 +3037,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3033,7 +3045,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3041,7 +3053,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3049,7 +3061,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3057,7 +3069,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3065,7 +3077,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3073,7 +3085,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3081,7 +3093,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3089,7 +3101,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3097,7 +3109,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3105,7 +3117,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3113,7 +3125,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3121,7 +3133,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3129,7 +3141,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3137,7 +3149,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3145,7 +3157,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3153,7 +3165,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3161,7 +3173,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3169,7 +3181,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3177,7 +3189,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3185,7 +3197,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3193,7 +3205,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3201,7 +3213,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3209,7 +3221,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3217,7 +3229,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3225,7 +3237,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3233,7 +3245,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3241,7 +3253,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3249,7 +3261,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3257,7 +3269,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3265,7 +3277,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3273,7 +3285,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3281,7 +3293,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3289,7 +3301,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3297,7 +3309,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3305,7 +3317,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3313,7 +3325,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3321,7 +3333,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3329,7 +3341,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3337,7 +3349,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3345,7 +3357,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3361,7 +3373,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3369,7 +3381,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3377,7 +3389,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3385,7 +3397,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3393,7 +3405,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3401,7 +3413,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3409,7 +3421,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3417,7 +3429,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3425,7 +3437,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3433,7 +3445,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3441,7 +3453,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3449,7 +3461,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3457,7 +3469,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3465,7 +3477,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3473,7 +3485,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3481,7 +3493,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3489,7 +3501,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3497,7 +3509,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3505,7 +3517,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3513,7 +3525,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3521,7 +3533,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3529,7 +3541,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3537,7 +3549,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3545,7 +3557,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3553,7 +3565,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3561,7 +3573,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3569,7 +3581,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3577,7 +3589,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3585,7 +3597,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3593,7 +3605,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3601,7 +3613,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3609,7 +3621,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3617,7 +3629,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3625,7 +3637,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3633,7 +3645,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3641,7 +3653,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3649,7 +3661,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3657,7 +3669,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3665,7 +3677,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3673,7 +3685,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3681,7 +3693,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3689,7 +3701,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3697,7 +3709,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3705,7 +3717,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3713,7 +3725,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3721,7 +3733,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3729,7 +3741,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3737,7 +3749,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3745,7 +3757,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3753,7 +3765,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3761,7 +3773,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3769,7 +3781,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3777,7 +3789,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3785,7 +3797,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3793,7 +3805,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3801,7 +3813,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3809,7 +3821,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3817,7 +3829,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3825,7 +3837,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3833,7 +3845,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3841,7 +3853,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3849,7 +3861,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3857,7 +3869,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3865,7 +3877,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3873,7 +3885,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3881,7 +3893,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3889,7 +3901,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3897,7 +3909,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3905,7 +3917,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3913,7 +3925,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3921,7 +3933,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3929,7 +3941,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3937,7 +3949,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3945,7 +3957,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3953,7 +3965,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3961,7 +3973,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3969,7 +3981,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3977,7 +3989,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3985,7 +3997,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3993,7 +4005,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -4001,7 +4013,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4009,7 +4021,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4017,7 +4029,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4025,7 +4037,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4033,7 +4045,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4041,7 +4053,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4049,7 +4061,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4057,7 +4069,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4065,7 +4077,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4073,7 +4085,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4081,7 +4093,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4089,7 +4101,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4097,7 +4109,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4105,7 +4117,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4113,7 +4125,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4121,7 +4133,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4129,7 +4141,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4137,7 +4149,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4145,7 +4157,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4153,7 +4165,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4161,7 +4173,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4169,7 +4181,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4177,7 +4189,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4185,7 +4197,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4193,7 +4205,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4201,7 +4213,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4209,7 +4221,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4217,7 +4229,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4225,7 +4237,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4233,7 +4245,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4241,7 +4253,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4249,7 +4261,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4257,7 +4269,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4265,7 +4277,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4273,7 +4285,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4281,7 +4293,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4289,7 +4301,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4305,7 +4317,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4313,7 +4325,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4321,7 +4333,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4329,7 +4341,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4337,7 +4349,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4345,7 +4357,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4353,7 +4365,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4361,7 +4373,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4369,7 +4381,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4377,7 +4389,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4385,7 +4397,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4393,7 +4405,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4401,7 +4413,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4409,7 +4421,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4417,7 +4429,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4425,7 +4437,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4433,7 +4445,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4441,7 +4453,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4449,7 +4461,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4457,7 +4469,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4465,7 +4477,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4473,7 +4485,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4481,7 +4493,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4489,7 +4501,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4497,7 +4509,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4505,7 +4517,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4513,7 +4525,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4521,7 +4533,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4529,7 +4541,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4537,7 +4549,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4545,7 +4557,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4553,7 +4565,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4561,7 +4573,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4569,7 +4581,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4577,7 +4589,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4585,7 +4597,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4593,7 +4605,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4601,7 +4613,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4609,7 +4621,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4617,7 +4629,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4625,7 +4637,23 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>606</v>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/Base calificaciones/calificaciones_db.xlsx
+++ b/Base calificaciones/calificaciones_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="613">
   <si>
     <t>AbandonodepersonaArt106párr1ro</t>
   </si>
@@ -943,6 +943,9 @@
     <t>ReproduccionesprohibidaseintrusiónArt224</t>
   </si>
   <si>
+    <t>Abigeatoagravado(participacióndecriador,cuidador,etc)Art167quaterInc5º</t>
+  </si>
+  <si>
     <t>Abandono de persona - Art.106 párr. 1ro</t>
   </si>
   <si>
@@ -1847,6 +1850,9 @@
   </si>
   <si>
     <t>Reproducciones prohibidas e intrusión - Art.224</t>
+  </si>
+  <si>
+    <t>Abigeato agravado (participación de criador, cuidador, etc.) - Art.167 quater Inc.5º</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2189,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2197,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2205,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2213,7 +2219,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2221,7 +2227,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2229,7 +2235,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2237,7 +2243,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2245,7 +2251,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2253,7 +2259,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2261,7 +2267,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2269,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2277,7 +2283,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2285,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2293,7 +2299,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2301,7 +2307,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2309,7 +2315,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2317,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2325,7 +2331,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2333,7 +2339,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2341,7 +2347,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2349,7 +2355,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2357,7 +2363,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2365,7 +2371,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2373,7 +2379,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2381,7 +2387,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2389,7 +2395,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2397,7 +2403,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2405,7 +2411,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2413,7 +2419,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2421,7 +2427,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2429,7 +2435,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2437,7 +2443,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2445,7 +2451,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2453,7 +2459,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2461,7 +2467,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2469,7 +2475,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2477,7 +2483,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2485,7 +2491,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2493,7 +2499,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2501,7 +2507,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2509,7 +2515,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2517,7 +2523,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2525,7 +2531,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2533,7 +2539,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2549,7 +2555,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2557,7 +2563,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2565,7 +2571,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2573,7 +2579,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2581,7 +2587,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2589,7 +2595,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2597,7 +2603,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2605,7 +2611,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2613,7 +2619,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2621,7 +2627,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2629,7 +2635,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2637,7 +2643,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2645,7 +2651,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2653,7 +2659,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2661,7 +2667,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2669,7 +2675,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2677,7 +2683,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2685,7 +2691,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2693,7 +2699,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2701,7 +2707,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2709,7 +2715,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2717,7 +2723,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2725,7 +2731,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2733,7 +2739,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2741,7 +2747,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2749,7 +2755,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2757,7 +2763,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2765,7 +2771,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2773,7 +2779,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2781,7 +2787,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2789,7 +2795,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2797,7 +2803,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2805,7 +2811,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2813,7 +2819,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2821,7 +2827,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2829,7 +2835,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2837,7 +2843,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2845,7 +2851,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2853,7 +2859,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2861,7 +2867,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2869,7 +2875,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2885,7 +2891,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2893,7 +2899,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2901,7 +2907,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2909,7 +2915,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2917,7 +2923,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2925,7 +2931,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2933,7 +2939,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2941,7 +2947,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2949,7 +2955,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2957,7 +2963,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2965,7 +2971,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2973,7 +2979,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2981,7 +2987,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2989,7 +2995,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2997,7 +3003,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3005,7 +3011,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3013,7 +3019,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3021,7 +3027,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3029,7 +3035,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3037,7 +3043,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3045,7 +3051,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3053,7 +3059,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3061,7 +3067,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3069,7 +3075,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3077,7 +3083,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3085,7 +3091,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3093,7 +3099,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3101,7 +3107,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3109,7 +3115,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3117,7 +3123,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3125,7 +3131,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3133,7 +3139,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3141,7 +3147,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3149,7 +3155,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3157,7 +3163,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3165,7 +3171,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3173,7 +3179,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3181,7 +3187,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3189,7 +3195,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3197,7 +3203,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3205,7 +3211,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3213,7 +3219,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3221,7 +3227,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3229,7 +3235,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3237,7 +3243,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3245,7 +3251,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3253,7 +3259,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3261,7 +3267,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3269,7 +3275,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3277,7 +3283,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3285,7 +3291,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3293,7 +3299,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3301,7 +3307,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3309,7 +3315,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3317,7 +3323,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3325,7 +3331,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3333,7 +3339,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3341,7 +3347,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3349,7 +3355,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3357,7 +3363,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3373,7 +3379,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3381,7 +3387,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3389,7 +3395,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3397,7 +3403,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3405,7 +3411,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3413,7 +3419,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3421,7 +3427,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3429,7 +3435,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3437,7 +3443,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3445,7 +3451,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3453,7 +3459,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3461,7 +3467,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3469,7 +3475,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3477,7 +3483,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3485,7 +3491,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3493,7 +3499,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3501,7 +3507,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3509,7 +3515,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3517,7 +3523,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3525,7 +3531,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3533,7 +3539,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3541,7 +3547,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3549,7 +3555,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3557,7 +3563,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3565,7 +3571,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3573,7 +3579,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3581,7 +3587,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3589,7 +3595,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3597,7 +3603,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3605,7 +3611,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3613,7 +3619,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3621,7 +3627,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3629,7 +3635,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3637,7 +3643,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3645,7 +3651,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3653,7 +3659,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3661,7 +3667,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3669,7 +3675,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3677,7 +3683,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3685,7 +3691,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3693,7 +3699,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3701,7 +3707,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3709,7 +3715,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3717,7 +3723,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3725,7 +3731,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3733,7 +3739,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3741,7 +3747,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3749,7 +3755,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3757,7 +3763,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3765,7 +3771,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3773,7 +3779,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3781,7 +3787,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3789,7 +3795,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3797,7 +3803,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3805,7 +3811,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3813,7 +3819,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3821,7 +3827,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3829,7 +3835,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3837,7 +3843,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3845,7 +3851,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3853,7 +3859,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3861,7 +3867,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3869,7 +3875,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3877,7 +3883,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3885,7 +3891,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3893,7 +3899,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3901,7 +3907,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3909,7 +3915,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3917,7 +3923,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3925,7 +3931,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3933,7 +3939,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3941,7 +3947,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3949,7 +3955,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3957,7 +3963,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3965,7 +3971,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3973,7 +3979,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3981,7 +3987,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3989,7 +3995,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3997,7 +4003,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -4005,7 +4011,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -4013,7 +4019,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4021,7 +4027,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4029,7 +4035,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4037,7 +4043,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4045,7 +4051,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4053,7 +4059,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4061,7 +4067,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4069,7 +4075,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4077,7 +4083,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4085,7 +4091,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4093,7 +4099,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4101,7 +4107,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4109,7 +4115,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4117,7 +4123,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4125,7 +4131,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4133,7 +4139,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4141,7 +4147,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4149,7 +4155,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4157,7 +4163,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4165,7 +4171,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4173,7 +4179,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4181,7 +4187,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4189,7 +4195,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4197,7 +4203,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4205,7 +4211,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4213,7 +4219,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4221,7 +4227,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4229,7 +4235,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4237,7 +4243,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4245,7 +4251,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4253,7 +4259,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4261,7 +4267,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4269,7 +4275,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4277,7 +4283,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4285,7 +4291,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4293,7 +4299,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4301,7 +4307,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4317,7 +4323,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4325,7 +4331,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4333,7 +4339,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4341,7 +4347,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4349,7 +4355,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4357,7 +4363,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4365,7 +4371,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4373,7 +4379,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4381,7 +4387,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4389,7 +4395,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4397,7 +4403,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4405,7 +4411,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4413,7 +4419,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4421,7 +4427,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4429,7 +4435,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4437,7 +4443,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4445,7 +4451,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4453,7 +4459,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4461,7 +4467,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4469,7 +4475,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4477,7 +4483,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4485,7 +4491,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4493,7 +4499,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4501,7 +4507,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4509,7 +4515,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4517,7 +4523,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4525,7 +4531,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4533,7 +4539,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4541,7 +4547,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4549,7 +4555,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4557,7 +4563,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4565,7 +4571,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4573,7 +4579,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4581,7 +4587,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4589,7 +4595,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4597,7 +4603,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4605,7 +4611,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4613,7 +4619,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4621,7 +4627,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4629,7 +4635,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4637,7 +4643,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4645,7 +4651,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4653,7 +4659,15 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>610</v>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
